--- a/sheet/output.xlsx
+++ b/sheet/output.xlsx
@@ -23448,7 +23448,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23457,174 +23457,60 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>A total distance of 35.78 Km was covered in 47.83 minutes.</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Average speed for the trip was: 44.88 km/hr</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Total energy consumed during the run: 224.262 kWh</t>
+        </is>
+      </c>
+    </row>
+    <row r="4"/>
+    <row r="5"/>
+    <row r="6"/>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Station From</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B7" s="1" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C7" s="1" t="inlineStr">
         <is>
           <t>Station To</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D7" s="1" t="inlineStr">
         <is>
           <t>Distance</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E7" s="1" t="inlineStr">
         <is>
           <t>Section Speed</t>
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Point of beginning</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Nagole (Airport)</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>670</v>
-      </c>
-      <c r="E2" t="n">
-        <v>30.92307692307692</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Nagole (Airport)</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Nagole X Rd</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>1270</v>
-      </c>
-      <c r="E3" t="n">
-        <v>43.13207547169812</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Nagole X Rd</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Alkapuri Jn</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>1100</v>
-      </c>
-      <c r="E4" t="n">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Alkapuri Jn</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Kamineni Hospital</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v>1480</v>
-      </c>
-      <c r="E5" t="n">
-        <v>45.15254237288136</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Kamineni Hospital</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>LB Nagar (Airport)</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
-        <v>830</v>
-      </c>
-      <c r="E6" t="n">
-        <v>33.95454545454545</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>LB Nagar (Airport)</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Bairamalguda</t>
-        </is>
-      </c>
-      <c r="D7" t="n">
-        <v>1150</v>
-      </c>
-      <c r="E7" t="n">
-        <v>40.99009900990099</v>
-      </c>
-    </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Bairamalguda</t>
+          <t>Point of beginning</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -23634,20 +23520,20 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Maitri Nagar</t>
+          <t>Nagole (Airport)</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>970</v>
+        <v>670</v>
       </c>
       <c r="E8" t="n">
-        <v>35.63265306122449</v>
+        <v>30.92307692307692</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Maitri Nagar</t>
+          <t>Nagole (Airport)</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -23657,20 +23543,20 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Karmanghat</t>
+          <t>Nagole X Rd</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>1220</v>
+        <v>1270</v>
       </c>
       <c r="E9" t="n">
-        <v>41.82857142857143</v>
+        <v>43.13207547169812</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Karmanghat</t>
+          <t>Nagole X Rd</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -23680,20 +23566,20 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Champapet Rd</t>
+          <t>Alkapuri Jn</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>1310</v>
+        <v>1100</v>
       </c>
       <c r="E10" t="n">
-        <v>43.26605504587156</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Champapet Rd</t>
+          <t>Alkapuri Jn</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -23703,20 +23589,20 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Owaisi Hospital</t>
+          <t>Kamineni Hospital</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>840</v>
+        <v>1480</v>
       </c>
       <c r="E11" t="n">
-        <v>36</v>
+        <v>45.15254237288136</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Owaisi Hospital</t>
+          <t>Kamineni Hospital</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -23726,20 +23612,20 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>DRDO</t>
+          <t>LB Nagar (Airport)</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>1280</v>
+        <v>830</v>
       </c>
       <c r="E12" t="n">
-        <v>42.66666666666666</v>
+        <v>33.95454545454545</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>DRDO</t>
+          <t>LB Nagar (Airport)</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -23749,20 +23635,20 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Balapur Rd</t>
+          <t>Bairamalguda</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>1370</v>
+        <v>1150</v>
       </c>
       <c r="E13" t="n">
-        <v>43.64601769911504</v>
+        <v>40.99009900990099</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Balapur Rd</t>
+          <t>Bairamalguda</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -23772,20 +23658,20 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Chandrayangutta</t>
+          <t>Maitri Nagar</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>720</v>
+        <v>970</v>
       </c>
       <c r="E14" t="n">
-        <v>32</v>
+        <v>35.63265306122449</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Chandrayangutta</t>
+          <t>Maitri Nagar</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -23795,20 +23681,20 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Bandlaguda Rd</t>
+          <t>Karmanghat</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>1600</v>
+        <v>1220</v>
       </c>
       <c r="E15" t="n">
-        <v>45.71428571428571</v>
+        <v>41.82857142857143</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Bandlaguda Rd</t>
+          <t>Karmanghat</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -23818,20 +23704,20 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Mailardevpally</t>
+          <t>Champapet Rd</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>2110</v>
+        <v>1310</v>
       </c>
       <c r="E16" t="n">
-        <v>45.75903614457831</v>
+        <v>43.26605504587156</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Mailardevpally</t>
+          <t>Champapet Rd</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -23841,20 +23727,20 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Katedan</t>
+          <t>Owaisi Hospital</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>1520</v>
+        <v>840</v>
       </c>
       <c r="E17" t="n">
-        <v>44.48780487804878</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Katedan</t>
+          <t>Owaisi Hospital</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -23864,20 +23750,20 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Aramghar</t>
+          <t>DRDO</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>920</v>
+        <v>1280</v>
       </c>
       <c r="E18" t="n">
-        <v>37.21348314606742</v>
+        <v>42.66666666666666</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Aramghar</t>
+          <t>DRDO</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -23887,20 +23773,20 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>New High Court</t>
+          <t>Balapur Rd</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>1499</v>
+        <v>1370</v>
       </c>
       <c r="E19" t="n">
-        <v>45.7322033898305</v>
+        <v>43.64601769911504</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>New High Court</t>
+          <t>Balapur Rd</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -23910,20 +23796,20 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Gaganpahad</t>
+          <t>Chandrayangutta</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>1007</v>
+        <v>720</v>
       </c>
       <c r="E20" t="n">
-        <v>37.7625</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Gaganpahad</t>
+          <t>Chandrayangutta</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -23933,20 +23819,20 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Satamrai</t>
+          <t>Bandlaguda Rd</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>1704</v>
+        <v>1600</v>
       </c>
       <c r="E21" t="n">
-        <v>46.82748091603053</v>
+        <v>45.71428571428571</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Satamrai</t>
+          <t>Bandlaguda Rd</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -23956,20 +23842,20 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Siddanthi</t>
+          <t>Mailardevpally</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>3077</v>
+        <v>2110</v>
       </c>
       <c r="E22" t="n">
-        <v>58.30105263157895</v>
+        <v>45.75903614457831</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Siddanthi</t>
+          <t>Mailardevpally</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -23979,20 +23865,20 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Shamshabad</t>
+          <t>Katedan</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>849</v>
+        <v>1520</v>
       </c>
       <c r="E23" t="n">
-        <v>35.53953488372093</v>
+        <v>44.48780487804878</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Shamshabad</t>
+          <t>Katedan</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -24002,20 +23888,20 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Cargo</t>
+          <t>Aramghar</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>5347</v>
+        <v>920</v>
       </c>
       <c r="E24" t="n">
-        <v>60.3423197492163</v>
+        <v>37.21348314606742</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Cargo</t>
+          <t>Aramghar</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -24025,13 +23911,151 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
+          <t>New High Court</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>1499</v>
+      </c>
+      <c r="E25" t="n">
+        <v>45.7322033898305</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>New High Court</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Gaganpahad</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>1007</v>
+      </c>
+      <c r="E26" t="n">
+        <v>37.7625</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Gaganpahad</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Satamrai</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>1704</v>
+      </c>
+      <c r="E27" t="n">
+        <v>46.82748091603053</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Satamrai</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Siddanthi</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>3077</v>
+      </c>
+      <c r="E28" t="n">
+        <v>58.30105263157895</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Siddanthi</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Shamshabad</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>849</v>
+      </c>
+      <c r="E29" t="n">
+        <v>35.53953488372093</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Shamshabad</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Cargo</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>5347</v>
+      </c>
+      <c r="E30" t="n">
+        <v>60.3423197492163</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Cargo</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
           <t>RGIA</t>
         </is>
       </c>
-      <c r="D25" t="n">
+      <c r="D31" t="n">
         <v>1935</v>
       </c>
-      <c r="E25" t="n">
+      <c r="E31" t="n">
         <v>50.47826086956522</v>
       </c>
     </row>

--- a/sheet/output.xlsx
+++ b/sheet/output.xlsx
@@ -727,7 +727,7 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>79.85016888888887</v>
+        <v>79.85019502311617</v>
       </c>
       <c r="B33" t="n">
         <v>0.5166666666666667</v>
@@ -735,7 +735,7 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>79.77525333333332</v>
+        <v>79.77533172094607</v>
       </c>
       <c r="B34" t="n">
         <v>0.5333333333333333</v>
@@ -743,7 +743,7 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>79.70033777777776</v>
+        <v>79.70049452287653</v>
       </c>
       <c r="B35" t="n">
         <v>0.55</v>
@@ -751,7 +751,7 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>75.38033777777775</v>
+        <v>75.38049452287653</v>
       </c>
       <c r="B36" t="n">
         <v>0.5666666666666667</v>
@@ -759,7 +759,7 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>71.06033777777776</v>
+        <v>71.06049452287652</v>
       </c>
       <c r="B37" t="n">
         <v>0.5833333333333334</v>
@@ -767,7 +767,7 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>66.74033777777777</v>
+        <v>66.74049452287653</v>
       </c>
       <c r="B38" t="n">
         <v>0.6</v>
@@ -775,7 +775,7 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>62.42033777777776</v>
+        <v>62.42049452287654</v>
       </c>
       <c r="B39" t="n">
         <v>0.6166666666666667</v>
@@ -783,7 +783,7 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>58.10033777777777</v>
+        <v>58.10049452287653</v>
       </c>
       <c r="B40" t="n">
         <v>0.6333333333333333</v>
@@ -791,7 +791,7 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>53.78033777777777</v>
+        <v>53.78049452287654</v>
       </c>
       <c r="B41" t="n">
         <v>0.65</v>
@@ -799,7 +799,7 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>49.46033777777777</v>
+        <v>49.46049452287654</v>
       </c>
       <c r="B42" t="n">
         <v>0.6666666666666666</v>
@@ -807,7 +807,7 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>45.14033777777778</v>
+        <v>45.14049452287654</v>
       </c>
       <c r="B43" t="n">
         <v>0.6833333333333333</v>
@@ -815,7 +815,7 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>40.82033777777778</v>
+        <v>40.82049452287655</v>
       </c>
       <c r="B44" t="n">
         <v>0.7</v>
@@ -823,7 +823,7 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>36.50033777777778</v>
+        <v>36.50049452287655</v>
       </c>
       <c r="B45" t="n">
         <v>0.7166666666666667</v>
@@ -831,7 +831,7 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>32.18033777777778</v>
+        <v>32.18049452287655</v>
       </c>
       <c r="B46" t="n">
         <v>0.7333333333333333</v>
@@ -839,7 +839,7 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>27.86033777777778</v>
+        <v>27.86049452287655</v>
       </c>
       <c r="B47" t="n">
         <v>0.75</v>
@@ -847,7 +847,7 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>23.54033777777778</v>
+        <v>23.54049452287655</v>
       </c>
       <c r="B48" t="n">
         <v>0.7666666666666667</v>
@@ -855,7 +855,7 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>19.22033777777778</v>
+        <v>19.22049452287655</v>
       </c>
       <c r="B49" t="n">
         <v>0.7833333333333333</v>
@@ -863,7 +863,7 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>14.90033777777778</v>
+        <v>14.90049452287655</v>
       </c>
       <c r="B50" t="n">
         <v>0.8</v>
@@ -1359,7 +1359,7 @@
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>79.85016888888887</v>
+        <v>79.85019502311617</v>
       </c>
       <c r="B112" t="n">
         <v>1.816666666666667</v>
@@ -1367,7 +1367,7 @@
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>79.77525333333332</v>
+        <v>79.77533172094607</v>
       </c>
       <c r="B113" t="n">
         <v>1.833333333333333</v>
@@ -1375,7 +1375,7 @@
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>79.70033777777776</v>
+        <v>79.70049452287653</v>
       </c>
       <c r="B114" t="n">
         <v>1.85</v>
@@ -1383,7 +1383,7 @@
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>79.6254222222222</v>
+        <v>79.6256834138614</v>
       </c>
       <c r="B115" t="n">
         <v>1.866666666666667</v>
@@ -1391,7 +1391,7 @@
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>79.55050666666664</v>
+        <v>79.55089837886598</v>
       </c>
       <c r="B116" t="n">
         <v>1.883333333333333</v>
@@ -1399,7 +1399,7 @@
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>79.47559111111107</v>
+        <v>79.47613940286706</v>
       </c>
       <c r="B117" t="n">
         <v>1.9</v>
@@ -1407,7 +1407,7 @@
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>79.40067555555552</v>
+        <v>79.40140647085286</v>
       </c>
       <c r="B118" t="n">
         <v>1.916666666666667</v>
@@ -1415,7 +1415,7 @@
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>79.32575999999996</v>
+        <v>79.32669956782298</v>
       </c>
       <c r="B119" t="n">
         <v>1.933333333333333</v>
@@ -1423,7 +1423,7 @@
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>79.2508444444444</v>
+        <v>79.25201867878852</v>
       </c>
       <c r="B120" t="n">
         <v>1.95</v>
@@ -1431,7 +1431,7 @@
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>79.17592888888883</v>
+        <v>79.17736378877188</v>
       </c>
       <c r="B121" t="n">
         <v>1.966666666666667</v>
@@ -1439,7 +1439,7 @@
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>79.10101333333327</v>
+        <v>79.10273488280698</v>
       </c>
       <c r="B122" t="n">
         <v>1.983333333333333</v>
@@ -1447,7 +1447,7 @@
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>79.02609777777772</v>
+        <v>79.02813194593905</v>
       </c>
       <c r="B123" t="n">
         <v>2</v>
@@ -1455,7 +1455,7 @@
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>78.95118222222216</v>
+        <v>78.9535549632247</v>
       </c>
       <c r="B124" t="n">
         <v>2.016666666666667</v>
@@ -1463,7 +1463,7 @@
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>78.8762666666666</v>
+        <v>78.87900391973193</v>
       </c>
       <c r="B125" t="n">
         <v>2.033333333333333</v>
@@ -1471,7 +1471,7 @@
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>78.80135111111103</v>
+        <v>78.80447880054007</v>
       </c>
       <c r="B126" t="n">
         <v>2.05</v>
@@ -1479,7 +1479,7 @@
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>78.72643555555547</v>
+        <v>78.7299795907398</v>
       </c>
       <c r="B127" t="n">
         <v>2.066666666666667</v>
@@ -1487,7 +1487,7 @@
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>78.65151999999992</v>
+        <v>78.65550627543314</v>
       </c>
       <c r="B128" t="n">
         <v>2.083333333333333</v>
@@ -1495,7 +1495,7 @@
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>78.57660444444436</v>
+        <v>78.58105883973342</v>
       </c>
       <c r="B129" t="n">
         <v>2.1</v>
@@ -1503,7 +1503,7 @@
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>78.50168888888879</v>
+        <v>78.50663726876527</v>
       </c>
       <c r="B130" t="n">
         <v>2.116666666666667</v>
@@ -1511,7 +1511,7 @@
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>78.42677333333323</v>
+        <v>78.43224154766469</v>
       </c>
       <c r="B131" t="n">
         <v>2.133333333333333</v>
@@ -1519,7 +1519,7 @@
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>78.35185777777767</v>
+        <v>78.35787166157886</v>
       </c>
       <c r="B132" t="n">
         <v>2.15</v>
@@ -1583,7 +1583,7 @@
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>79.85016888888887</v>
+        <v>79.85019502311617</v>
       </c>
       <c r="B140" t="n">
         <v>2.283333333333333</v>
@@ -1591,7 +1591,7 @@
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>79.77525333333332</v>
+        <v>79.77533172094607</v>
       </c>
       <c r="B141" t="n">
         <v>2.3</v>
@@ -1599,7 +1599,7 @@
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>75.45525333333332</v>
+        <v>75.45533172094608</v>
       </c>
       <c r="B142" t="n">
         <v>2.316666666666667</v>
@@ -1607,7 +1607,7 @@
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>71.13525333333332</v>
+        <v>71.13533172094608</v>
       </c>
       <c r="B143" t="n">
         <v>2.333333333333333</v>
@@ -1615,7 +1615,7 @@
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>66.81525333333333</v>
+        <v>66.81533172094608</v>
       </c>
       <c r="B144" t="n">
         <v>2.35</v>
@@ -1623,7 +1623,7 @@
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>62.49525333333332</v>
+        <v>62.49533172094608</v>
       </c>
       <c r="B145" t="n">
         <v>2.366666666666667</v>
@@ -1631,7 +1631,7 @@
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>58.17525333333333</v>
+        <v>58.17533172094609</v>
       </c>
       <c r="B146" t="n">
         <v>2.383333333333333</v>
@@ -1639,7 +1639,7 @@
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>53.85525333333332</v>
+        <v>53.85533172094608</v>
       </c>
       <c r="B147" t="n">
         <v>2.4</v>
@@ -1647,7 +1647,7 @@
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>49.53525333333333</v>
+        <v>49.53533172094609</v>
       </c>
       <c r="B148" t="n">
         <v>2.416666666666667</v>
@@ -1655,7 +1655,7 @@
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>45.21525333333334</v>
+        <v>45.21533172094609</v>
       </c>
       <c r="B149" t="n">
         <v>2.433333333333333</v>
@@ -1663,7 +1663,7 @@
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>40.89525333333334</v>
+        <v>40.89533172094609</v>
       </c>
       <c r="B150" t="n">
         <v>2.45</v>
@@ -1671,7 +1671,7 @@
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>36.57525333333334</v>
+        <v>36.5753317209461</v>
       </c>
       <c r="B151" t="n">
         <v>2.466666666666667</v>
@@ -1679,7 +1679,7 @@
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>32.25525333333334</v>
+        <v>32.2553317209461</v>
       </c>
       <c r="B152" t="n">
         <v>2.483333333333333</v>
@@ -1687,7 +1687,7 @@
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>27.93525333333334</v>
+        <v>27.9353317209461</v>
       </c>
       <c r="B153" t="n">
         <v>2.5</v>
@@ -1695,7 +1695,7 @@
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>23.61525333333334</v>
+        <v>23.6153317209461</v>
       </c>
       <c r="B154" t="n">
         <v>2.516666666666667</v>
@@ -1703,7 +1703,7 @@
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>19.29525333333334</v>
+        <v>19.29533172094609</v>
       </c>
       <c r="B155" t="n">
         <v>2.533333333333333</v>
@@ -1711,7 +1711,7 @@
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>14.97525333333334</v>
+        <v>14.97533172094609</v>
       </c>
       <c r="B156" t="n">
         <v>2.55</v>
@@ -1719,7 +1719,7 @@
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>10.65525333333334</v>
+        <v>10.65533172094609</v>
       </c>
       <c r="B157" t="n">
         <v>2.566666666666667</v>
@@ -2215,7 +2215,7 @@
     </row>
     <row r="219">
       <c r="A219" t="n">
-        <v>79.85016888888887</v>
+        <v>79.85019502311617</v>
       </c>
       <c r="B219" t="n">
         <v>3.583333333333333</v>
@@ -2223,7 +2223,7 @@
     </row>
     <row r="220">
       <c r="A220" t="n">
-        <v>79.77525333333332</v>
+        <v>79.77533172094607</v>
       </c>
       <c r="B220" t="n">
         <v>3.6</v>
@@ -2231,7 +2231,7 @@
     </row>
     <row r="221">
       <c r="A221" t="n">
-        <v>79.70033777777776</v>
+        <v>79.70049452287653</v>
       </c>
       <c r="B221" t="n">
         <v>3.616666666666667</v>
@@ -2239,7 +2239,7 @@
     </row>
     <row r="222">
       <c r="A222" t="n">
-        <v>79.6254222222222</v>
+        <v>79.6256834138614</v>
       </c>
       <c r="B222" t="n">
         <v>3.633333333333333</v>
@@ -2247,7 +2247,7 @@
     </row>
     <row r="223">
       <c r="A223" t="n">
-        <v>79.55050666666664</v>
+        <v>79.55089837886598</v>
       </c>
       <c r="B223" t="n">
         <v>3.65</v>
@@ -2255,7 +2255,7 @@
     </row>
     <row r="224">
       <c r="A224" t="n">
-        <v>79.47559111111107</v>
+        <v>79.47613940286706</v>
       </c>
       <c r="B224" t="n">
         <v>3.666666666666667</v>
@@ -2263,7 +2263,7 @@
     </row>
     <row r="225">
       <c r="A225" t="n">
-        <v>79.40067555555552</v>
+        <v>79.40140647085286</v>
       </c>
       <c r="B225" t="n">
         <v>3.683333333333333</v>
@@ -2327,7 +2327,7 @@
     </row>
     <row r="233">
       <c r="A233" t="n">
-        <v>79.85016888888887</v>
+        <v>79.85019502311617</v>
       </c>
       <c r="B233" t="n">
         <v>3.816666666666667</v>
@@ -3031,7 +3031,7 @@
     </row>
     <row r="321">
       <c r="A321" t="n">
-        <v>79.85016888888887</v>
+        <v>79.85019502311617</v>
       </c>
       <c r="B321" t="n">
         <v>5.266666666666667</v>
@@ -3039,7 +3039,7 @@
     </row>
     <row r="322">
       <c r="A322" t="n">
-        <v>79.77525333333332</v>
+        <v>79.77533172094607</v>
       </c>
       <c r="B322" t="n">
         <v>5.283333333333333</v>
@@ -3047,7 +3047,7 @@
     </row>
     <row r="323">
       <c r="A323" t="n">
-        <v>79.70033777777776</v>
+        <v>79.70049452287653</v>
       </c>
       <c r="B323" t="n">
         <v>5.3</v>
@@ -3055,7 +3055,7 @@
     </row>
     <row r="324">
       <c r="A324" t="n">
-        <v>79.6254222222222</v>
+        <v>79.6256834138614</v>
       </c>
       <c r="B324" t="n">
         <v>5.316666666666666</v>
@@ -3063,7 +3063,7 @@
     </row>
     <row r="325">
       <c r="A325" t="n">
-        <v>79.55050666666664</v>
+        <v>79.55089837886598</v>
       </c>
       <c r="B325" t="n">
         <v>5.333333333333333</v>
@@ -3071,7 +3071,7 @@
     </row>
     <row r="326">
       <c r="A326" t="n">
-        <v>79.47559111111107</v>
+        <v>79.47613940286706</v>
       </c>
       <c r="B326" t="n">
         <v>5.35</v>
@@ -3079,7 +3079,7 @@
     </row>
     <row r="327">
       <c r="A327" t="n">
-        <v>79.40067555555552</v>
+        <v>79.40140647085286</v>
       </c>
       <c r="B327" t="n">
         <v>5.366666666666666</v>
@@ -3183,7 +3183,7 @@
     </row>
     <row r="340">
       <c r="A340" t="n">
-        <v>74.92508444444444</v>
+        <v>74.92681562499999</v>
       </c>
       <c r="B340" t="n">
         <v>5.583333333333333</v>
@@ -3191,7 +3191,7 @@
     </row>
     <row r="341">
       <c r="A341" t="n">
-        <v>74.85016888888887</v>
+        <v>74.85365639208986</v>
       </c>
       <c r="B341" t="n">
         <v>5.6</v>
@@ -3199,7 +3199,7 @@
     </row>
     <row r="342">
       <c r="A342" t="n">
-        <v>74.77525333333332</v>
+        <v>74.78052228695186</v>
       </c>
       <c r="B342" t="n">
         <v>5.616666666666666</v>
@@ -3207,7 +3207,7 @@
     </row>
     <row r="343">
       <c r="A343" t="n">
-        <v>74.70033777777776</v>
+        <v>74.707413295279</v>
       </c>
       <c r="B343" t="n">
         <v>5.633333333333334</v>
@@ -3215,7 +3215,7 @@
     </row>
     <row r="344">
       <c r="A344" t="n">
-        <v>74.6254222222222</v>
+        <v>74.63432940277502</v>
       </c>
       <c r="B344" t="n">
         <v>5.65</v>
@@ -3223,7 +3223,7 @@
     </row>
     <row r="345">
       <c r="A345" t="n">
-        <v>74.55050666666664</v>
+        <v>74.5612705951545</v>
       </c>
       <c r="B345" t="n">
         <v>5.666666666666667</v>
@@ -3231,7 +3231,7 @@
     </row>
     <row r="346">
       <c r="A346" t="n">
-        <v>74.47559111111107</v>
+        <v>74.48823685814266</v>
       </c>
       <c r="B346" t="n">
         <v>5.683333333333334</v>
@@ -3239,7 +3239,7 @@
     </row>
     <row r="347">
       <c r="A347" t="n">
-        <v>74.40067555555552</v>
+        <v>74.41522817747551</v>
       </c>
       <c r="B347" t="n">
         <v>5.7</v>
@@ -3247,7 +3247,7 @@
     </row>
     <row r="348">
       <c r="A348" t="n">
-        <v>74.32575999999996</v>
+        <v>74.34224453889978</v>
       </c>
       <c r="B348" t="n">
         <v>5.716666666666667</v>
@@ -3255,7 +3255,7 @@
     </row>
     <row r="349">
       <c r="A349" t="n">
-        <v>74.2508444444444</v>
+        <v>74.26928592817288</v>
       </c>
       <c r="B349" t="n">
         <v>5.733333333333333</v>
@@ -3967,7 +3967,7 @@
     </row>
     <row r="438">
       <c r="A438" t="n">
-        <v>79.85016888888887</v>
+        <v>79.85019502311617</v>
       </c>
       <c r="B438" t="n">
         <v>7.2</v>
@@ -3975,7 +3975,7 @@
     </row>
     <row r="439">
       <c r="A439" t="n">
-        <v>79.77525333333332</v>
+        <v>79.77533172094607</v>
       </c>
       <c r="B439" t="n">
         <v>7.216666666666667</v>
@@ -3983,7 +3983,7 @@
     </row>
     <row r="440">
       <c r="A440" t="n">
-        <v>79.70033777777776</v>
+        <v>79.70049452287653</v>
       </c>
       <c r="B440" t="n">
         <v>7.233333333333333</v>
@@ -3991,7 +3991,7 @@
     </row>
     <row r="441">
       <c r="A441" t="n">
-        <v>79.6254222222222</v>
+        <v>79.6256834138614</v>
       </c>
       <c r="B441" t="n">
         <v>7.25</v>
@@ -3999,7 +3999,7 @@
     </row>
     <row r="442">
       <c r="A442" t="n">
-        <v>79.55050666666664</v>
+        <v>79.55089837886598</v>
       </c>
       <c r="B442" t="n">
         <v>7.266666666666667</v>
@@ -4007,7 +4007,7 @@
     </row>
     <row r="443">
       <c r="A443" t="n">
-        <v>79.47559111111107</v>
+        <v>79.47613940286706</v>
       </c>
       <c r="B443" t="n">
         <v>7.283333333333333</v>
@@ -4015,7 +4015,7 @@
     </row>
     <row r="444">
       <c r="A444" t="n">
-        <v>79.40067555555552</v>
+        <v>79.40140647085286</v>
       </c>
       <c r="B444" t="n">
         <v>7.3</v>
@@ -4023,7 +4023,7 @@
     </row>
     <row r="445">
       <c r="A445" t="n">
-        <v>79.32575999999996</v>
+        <v>79.32669956782298</v>
       </c>
       <c r="B445" t="n">
         <v>7.316666666666666</v>
@@ -4031,7 +4031,7 @@
     </row>
     <row r="446">
       <c r="A446" t="n">
-        <v>79.2508444444444</v>
+        <v>79.25201867878852</v>
       </c>
       <c r="B446" t="n">
         <v>7.333333333333333</v>
@@ -4039,7 +4039,7 @@
     </row>
     <row r="447">
       <c r="A447" t="n">
-        <v>79.17592888888883</v>
+        <v>79.17736378877188</v>
       </c>
       <c r="B447" t="n">
         <v>7.35</v>
@@ -4047,7 +4047,7 @@
     </row>
     <row r="448">
       <c r="A448" t="n">
-        <v>74.85592888888883</v>
+        <v>74.85736378877189</v>
       </c>
       <c r="B448" t="n">
         <v>7.366666666666666</v>
@@ -4055,7 +4055,7 @@
     </row>
     <row r="449">
       <c r="A449" t="n">
-        <v>70.53592888888883</v>
+        <v>70.5373637887719</v>
       </c>
       <c r="B449" t="n">
         <v>7.383333333333334</v>
@@ -4063,7 +4063,7 @@
     </row>
     <row r="450">
       <c r="A450" t="n">
-        <v>66.21592888888884</v>
+        <v>66.21736378877191</v>
       </c>
       <c r="B450" t="n">
         <v>7.4</v>
@@ -4071,7 +4071,7 @@
     </row>
     <row r="451">
       <c r="A451" t="n">
-        <v>61.89592888888884</v>
+        <v>61.89736378877191</v>
       </c>
       <c r="B451" t="n">
         <v>7.416666666666667</v>
@@ -4079,7 +4079,7 @@
     </row>
     <row r="452">
       <c r="A452" t="n">
-        <v>57.57592888888885</v>
+        <v>57.5773637887719</v>
       </c>
       <c r="B452" t="n">
         <v>7.433333333333334</v>
@@ -4087,7 +4087,7 @@
     </row>
     <row r="453">
       <c r="A453" t="n">
-        <v>53.25592888888885</v>
+        <v>53.25736378877191</v>
       </c>
       <c r="B453" t="n">
         <v>7.45</v>
@@ -4095,7 +4095,7 @@
     </row>
     <row r="454">
       <c r="A454" t="n">
-        <v>48.93592888888885</v>
+        <v>48.93736378877191</v>
       </c>
       <c r="B454" t="n">
         <v>7.466666666666667</v>
@@ -4103,7 +4103,7 @@
     </row>
     <row r="455">
       <c r="A455" t="n">
-        <v>44.61592888888886</v>
+        <v>44.61736378877191</v>
       </c>
       <c r="B455" t="n">
         <v>7.483333333333333</v>
@@ -4111,7 +4111,7 @@
     </row>
     <row r="456">
       <c r="A456" t="n">
-        <v>40.29592888888886</v>
+        <v>40.29736378877192</v>
       </c>
       <c r="B456" t="n">
         <v>7.5</v>
@@ -4119,7 +4119,7 @@
     </row>
     <row r="457">
       <c r="A457" t="n">
-        <v>35.97592888888886</v>
+        <v>35.97736378877192</v>
       </c>
       <c r="B457" t="n">
         <v>7.516666666666667</v>
@@ -4127,7 +4127,7 @@
     </row>
     <row r="458">
       <c r="A458" t="n">
-        <v>31.65592888888886</v>
+        <v>31.65736378877192</v>
       </c>
       <c r="B458" t="n">
         <v>7.533333333333333</v>
@@ -4135,7 +4135,7 @@
     </row>
     <row r="459">
       <c r="A459" t="n">
-        <v>27.33592888888886</v>
+        <v>27.33736378877192</v>
       </c>
       <c r="B459" t="n">
         <v>7.55</v>
@@ -4143,7 +4143,7 @@
     </row>
     <row r="460">
       <c r="A460" t="n">
-        <v>23.01592888888886</v>
+        <v>23.01736378877192</v>
       </c>
       <c r="B460" t="n">
         <v>7.566666666666666</v>
@@ -4151,7 +4151,7 @@
     </row>
     <row r="461">
       <c r="A461" t="n">
-        <v>18.69592888888886</v>
+        <v>18.69736378877192</v>
       </c>
       <c r="B461" t="n">
         <v>7.583333333333333</v>
@@ -4159,7 +4159,7 @@
     </row>
     <row r="462">
       <c r="A462" t="n">
-        <v>14.37592888888886</v>
+        <v>14.37736378877192</v>
       </c>
       <c r="B462" t="n">
         <v>7.6</v>
@@ -4167,7 +4167,7 @@
     </row>
     <row r="463">
       <c r="A463" t="n">
-        <v>10.05592888888886</v>
+        <v>10.05736378877192</v>
       </c>
       <c r="B463" t="n">
         <v>7.616666666666666</v>
@@ -4175,7 +4175,7 @@
     </row>
     <row r="464">
       <c r="A464" t="n">
-        <v>5.735928888888859</v>
+        <v>5.737363788771918</v>
       </c>
       <c r="B464" t="n">
         <v>7.633333333333334</v>
@@ -4183,7 +4183,7 @@
     </row>
     <row r="465">
       <c r="A465" t="n">
-        <v>1.415928888888859</v>
+        <v>1.417363788771919</v>
       </c>
       <c r="B465" t="n">
         <v>7.65</v>
@@ -4679,7 +4679,7 @@
     </row>
     <row r="527">
       <c r="A527" t="n">
-        <v>79.85016888888887</v>
+        <v>79.85019502311617</v>
       </c>
       <c r="B527" t="n">
         <v>8.666666666666666</v>
@@ -4687,7 +4687,7 @@
     </row>
     <row r="528">
       <c r="A528" t="n">
-        <v>79.77525333333332</v>
+        <v>79.77533172094607</v>
       </c>
       <c r="B528" t="n">
         <v>8.683333333333334</v>
@@ -4695,7 +4695,7 @@
     </row>
     <row r="529">
       <c r="A529" t="n">
-        <v>79.70033777777776</v>
+        <v>79.70049452287653</v>
       </c>
       <c r="B529" t="n">
         <v>8.699999999999999</v>
@@ -4703,7 +4703,7 @@
     </row>
     <row r="530">
       <c r="A530" t="n">
-        <v>79.6254222222222</v>
+        <v>79.6256834138614</v>
       </c>
       <c r="B530" t="n">
         <v>8.716666666666667</v>
@@ -4711,7 +4711,7 @@
     </row>
     <row r="531">
       <c r="A531" t="n">
-        <v>79.55050666666664</v>
+        <v>79.55089837886598</v>
       </c>
       <c r="B531" t="n">
         <v>8.733333333333333</v>
@@ -4719,7 +4719,7 @@
     </row>
     <row r="532">
       <c r="A532" t="n">
-        <v>79.47559111111107</v>
+        <v>79.47613940286706</v>
       </c>
       <c r="B532" t="n">
         <v>8.75</v>
@@ -4727,7 +4727,7 @@
     </row>
     <row r="533">
       <c r="A533" t="n">
-        <v>79.40067555555552</v>
+        <v>79.40140647085286</v>
       </c>
       <c r="B533" t="n">
         <v>8.766666666666667</v>
@@ -4735,7 +4735,7 @@
     </row>
     <row r="534">
       <c r="A534" t="n">
-        <v>79.32575999999996</v>
+        <v>79.32669956782298</v>
       </c>
       <c r="B534" t="n">
         <v>8.783333333333333</v>
@@ -4743,7 +4743,7 @@
     </row>
     <row r="535">
       <c r="A535" t="n">
-        <v>79.2508444444444</v>
+        <v>79.25201867878852</v>
       </c>
       <c r="B535" t="n">
         <v>8.800000000000001</v>
@@ -4751,7 +4751,7 @@
     </row>
     <row r="536">
       <c r="A536" t="n">
-        <v>79.17592888888883</v>
+        <v>79.17736378877188</v>
       </c>
       <c r="B536" t="n">
         <v>8.816666666666666</v>
@@ -4759,7 +4759,7 @@
     </row>
     <row r="537">
       <c r="A537" t="n">
-        <v>79.10101333333327</v>
+        <v>79.10273488280698</v>
       </c>
       <c r="B537" t="n">
         <v>8.833333333333334</v>
@@ -4767,7 +4767,7 @@
     </row>
     <row r="538">
       <c r="A538" t="n">
-        <v>79.02609777777772</v>
+        <v>79.02813194593905</v>
       </c>
       <c r="B538" t="n">
         <v>8.85</v>
@@ -4775,7 +4775,7 @@
     </row>
     <row r="539">
       <c r="A539" t="n">
-        <v>78.95118222222216</v>
+        <v>78.9535549632247</v>
       </c>
       <c r="B539" t="n">
         <v>8.866666666666667</v>
@@ -4783,7 +4783,7 @@
     </row>
     <row r="540">
       <c r="A540" t="n">
-        <v>78.8762666666666</v>
+        <v>78.87900391973193</v>
       </c>
       <c r="B540" t="n">
         <v>8.883333333333333</v>
@@ -5495,7 +5495,7 @@
     </row>
     <row r="629">
       <c r="A629" t="n">
-        <v>79.85016888888887</v>
+        <v>79.85019502311617</v>
       </c>
       <c r="B629" t="n">
         <v>10.35</v>
@@ -5503,7 +5503,7 @@
     </row>
     <row r="630">
       <c r="A630" t="n">
-        <v>79.77525333333332</v>
+        <v>79.77533172094607</v>
       </c>
       <c r="B630" t="n">
         <v>10.36666666666667</v>
@@ -5511,7 +5511,7 @@
     </row>
     <row r="631">
       <c r="A631" t="n">
-        <v>79.70033777777776</v>
+        <v>79.70049452287653</v>
       </c>
       <c r="B631" t="n">
         <v>10.38333333333333</v>
@@ -5519,7 +5519,7 @@
     </row>
     <row r="632">
       <c r="A632" t="n">
-        <v>79.6254222222222</v>
+        <v>79.6256834138614</v>
       </c>
       <c r="B632" t="n">
         <v>10.4</v>
@@ -6287,7 +6287,7 @@
     </row>
     <row r="728">
       <c r="A728" t="n">
-        <v>79.85016888888887</v>
+        <v>79.85019502311617</v>
       </c>
       <c r="B728" t="n">
         <v>11.98333333333333</v>
@@ -6295,7 +6295,7 @@
     </row>
     <row r="729">
       <c r="A729" t="n">
-        <v>79.77525333333332</v>
+        <v>79.77533172094607</v>
       </c>
       <c r="B729" t="n">
         <v>12</v>
@@ -6303,7 +6303,7 @@
     </row>
     <row r="730">
       <c r="A730" t="n">
-        <v>79.70033777777776</v>
+        <v>79.70049452287653</v>
       </c>
       <c r="B730" t="n">
         <v>12.01666666666667</v>
@@ -6311,7 +6311,7 @@
     </row>
     <row r="731">
       <c r="A731" t="n">
-        <v>79.6254222222222</v>
+        <v>79.6256834138614</v>
       </c>
       <c r="B731" t="n">
         <v>12.03333333333333</v>
@@ -6319,7 +6319,7 @@
     </row>
     <row r="732">
       <c r="A732" t="n">
-        <v>79.55050666666664</v>
+        <v>79.55089837886598</v>
       </c>
       <c r="B732" t="n">
         <v>12.05</v>
@@ -6327,7 +6327,7 @@
     </row>
     <row r="733">
       <c r="A733" t="n">
-        <v>79.47559111111107</v>
+        <v>79.47613940286706</v>
       </c>
       <c r="B733" t="n">
         <v>12.06666666666667</v>
@@ -6335,7 +6335,7 @@
     </row>
     <row r="734">
       <c r="A734" t="n">
-        <v>79.40067555555552</v>
+        <v>79.40140647085286</v>
       </c>
       <c r="B734" t="n">
         <v>12.08333333333333</v>
@@ -6343,7 +6343,7 @@
     </row>
     <row r="735">
       <c r="A735" t="n">
-        <v>79.32575999999996</v>
+        <v>79.32669956782298</v>
       </c>
       <c r="B735" t="n">
         <v>12.1</v>
@@ -6351,7 +6351,7 @@
     </row>
     <row r="736">
       <c r="A736" t="n">
-        <v>79.2508444444444</v>
+        <v>79.25201867878852</v>
       </c>
       <c r="B736" t="n">
         <v>12.11666666666667</v>
@@ -6359,7 +6359,7 @@
     </row>
     <row r="737">
       <c r="A737" t="n">
-        <v>79.17592888888883</v>
+        <v>79.17736378877188</v>
       </c>
       <c r="B737" t="n">
         <v>12.13333333333333</v>
@@ -6367,7 +6367,7 @@
     </row>
     <row r="738">
       <c r="A738" t="n">
-        <v>79.10101333333327</v>
+        <v>79.10273488280698</v>
       </c>
       <c r="B738" t="n">
         <v>12.15</v>
@@ -6375,7 +6375,7 @@
     </row>
     <row r="739">
       <c r="A739" t="n">
-        <v>79.02609777777772</v>
+        <v>79.02813194593905</v>
       </c>
       <c r="B739" t="n">
         <v>12.16666666666667</v>
@@ -6383,7 +6383,7 @@
     </row>
     <row r="740">
       <c r="A740" t="n">
-        <v>78.95118222222216</v>
+        <v>78.9535549632247</v>
       </c>
       <c r="B740" t="n">
         <v>12.18333333333333</v>
@@ -6391,7 +6391,7 @@
     </row>
     <row r="741">
       <c r="A741" t="n">
-        <v>78.8762666666666</v>
+        <v>78.87900391973193</v>
       </c>
       <c r="B741" t="n">
         <v>12.2</v>
@@ -6399,7 +6399,7 @@
     </row>
     <row r="742">
       <c r="A742" t="n">
-        <v>78.80135111111103</v>
+        <v>78.80447880054007</v>
       </c>
       <c r="B742" t="n">
         <v>12.21666666666667</v>
@@ -6407,7 +6407,7 @@
     </row>
     <row r="743">
       <c r="A743" t="n">
-        <v>78.72643555555547</v>
+        <v>78.7299795907398</v>
       </c>
       <c r="B743" t="n">
         <v>12.23333333333333</v>
@@ -6415,7 +6415,7 @@
     </row>
     <row r="744">
       <c r="A744" t="n">
-        <v>78.65151999999992</v>
+        <v>78.65550627543314</v>
       </c>
       <c r="B744" t="n">
         <v>12.25</v>
@@ -6423,7 +6423,7 @@
     </row>
     <row r="745">
       <c r="A745" t="n">
-        <v>78.57660444444436</v>
+        <v>78.58105883973342</v>
       </c>
       <c r="B745" t="n">
         <v>12.26666666666667</v>
@@ -6431,7 +6431,7 @@
     </row>
     <row r="746">
       <c r="A746" t="n">
-        <v>78.50168888888879</v>
+        <v>78.50663726876527</v>
       </c>
       <c r="B746" t="n">
         <v>12.28333333333333</v>
@@ -6479,7 +6479,7 @@
     </row>
     <row r="752">
       <c r="A752" t="n">
-        <v>74.92508444444444</v>
+        <v>74.92681562499999</v>
       </c>
       <c r="B752" t="n">
         <v>12.38333333333333</v>
@@ -6487,7 +6487,7 @@
     </row>
     <row r="753">
       <c r="A753" t="n">
-        <v>74.85016888888887</v>
+        <v>74.85365639208986</v>
       </c>
       <c r="B753" t="n">
         <v>12.4</v>
@@ -6495,7 +6495,7 @@
     </row>
     <row r="754">
       <c r="A754" t="n">
-        <v>74.77525333333332</v>
+        <v>74.78052228695186</v>
       </c>
       <c r="B754" t="n">
         <v>12.41666666666667</v>
@@ -6503,7 +6503,7 @@
     </row>
     <row r="755">
       <c r="A755" t="n">
-        <v>74.70033777777776</v>
+        <v>74.707413295279</v>
       </c>
       <c r="B755" t="n">
         <v>12.43333333333333</v>
@@ -6511,7 +6511,7 @@
     </row>
     <row r="756">
       <c r="A756" t="n">
-        <v>70.38033777777775</v>
+        <v>70.387413295279</v>
       </c>
       <c r="B756" t="n">
         <v>12.45</v>
@@ -6519,7 +6519,7 @@
     </row>
     <row r="757">
       <c r="A757" t="n">
-        <v>66.06033777777776</v>
+        <v>66.06741329527901</v>
       </c>
       <c r="B757" t="n">
         <v>12.46666666666667</v>
@@ -6527,7 +6527,7 @@
     </row>
     <row r="758">
       <c r="A758" t="n">
-        <v>61.74033777777777</v>
+        <v>61.747413295279</v>
       </c>
       <c r="B758" t="n">
         <v>12.48333333333333</v>
@@ -6535,7 +6535,7 @@
     </row>
     <row r="759">
       <c r="A759" t="n">
-        <v>57.42033777777776</v>
+        <v>57.42741329527901</v>
       </c>
       <c r="B759" t="n">
         <v>12.5</v>
@@ -6543,7 +6543,7 @@
     </row>
     <row r="760">
       <c r="A760" t="n">
-        <v>53.10033777777777</v>
+        <v>53.10741329527902</v>
       </c>
       <c r="B760" t="n">
         <v>12.51666666666667</v>
@@ -6551,7 +6551,7 @@
     </row>
     <row r="761">
       <c r="A761" t="n">
-        <v>48.78033777777777</v>
+        <v>48.78741329527901</v>
       </c>
       <c r="B761" t="n">
         <v>12.53333333333333</v>
@@ -6559,7 +6559,7 @@
     </row>
     <row r="762">
       <c r="A762" t="n">
-        <v>44.46033777777777</v>
+        <v>44.46741329527902</v>
       </c>
       <c r="B762" t="n">
         <v>12.55</v>
@@ -6567,7 +6567,7 @@
     </row>
     <row r="763">
       <c r="A763" t="n">
-        <v>40.14033777777777</v>
+        <v>40.14741329527902</v>
       </c>
       <c r="B763" t="n">
         <v>12.56666666666667</v>
@@ -6575,7 +6575,7 @@
     </row>
     <row r="764">
       <c r="A764" t="n">
-        <v>35.82033777777777</v>
+        <v>35.82741329527902</v>
       </c>
       <c r="B764" t="n">
         <v>12.58333333333333</v>
@@ -6583,7 +6583,7 @@
     </row>
     <row r="765">
       <c r="A765" t="n">
-        <v>31.50033777777778</v>
+        <v>31.50741329527903</v>
       </c>
       <c r="B765" t="n">
         <v>12.6</v>
@@ -6591,7 +6591,7 @@
     </row>
     <row r="766">
       <c r="A766" t="n">
-        <v>27.18033777777778</v>
+        <v>27.18741329527902</v>
       </c>
       <c r="B766" t="n">
         <v>12.61666666666667</v>
@@ -6599,7 +6599,7 @@
     </row>
     <row r="767">
       <c r="A767" t="n">
-        <v>22.86033777777778</v>
+        <v>22.86741329527902</v>
       </c>
       <c r="B767" t="n">
         <v>12.63333333333333</v>
@@ -6607,7 +6607,7 @@
     </row>
     <row r="768">
       <c r="A768" t="n">
-        <v>18.54033777777778</v>
+        <v>18.54741329527902</v>
       </c>
       <c r="B768" t="n">
         <v>12.65</v>
@@ -6615,7 +6615,7 @@
     </row>
     <row r="769">
       <c r="A769" t="n">
-        <v>14.22033777777778</v>
+        <v>14.22741329527902</v>
       </c>
       <c r="B769" t="n">
         <v>12.66666666666667</v>
@@ -6623,7 +6623,7 @@
     </row>
     <row r="770">
       <c r="A770" t="n">
-        <v>9.900337777777777</v>
+        <v>9.907413295279019</v>
       </c>
       <c r="B770" t="n">
         <v>12.68333333333333</v>
@@ -6631,7 +6631,7 @@
     </row>
     <row r="771">
       <c r="A771" t="n">
-        <v>5.580337777777777</v>
+        <v>5.587413295279019</v>
       </c>
       <c r="B771" t="n">
         <v>12.7</v>
@@ -6639,7 +6639,7 @@
     </row>
     <row r="772">
       <c r="A772" t="n">
-        <v>1.260337777777777</v>
+        <v>1.267413295279019</v>
       </c>
       <c r="B772" t="n">
         <v>12.71666666666667</v>
@@ -7175,7 +7175,7 @@
     </row>
     <row r="839">
       <c r="A839" t="n">
-        <v>79.85016888888887</v>
+        <v>79.85019502311617</v>
       </c>
       <c r="B839" t="n">
         <v>13.81666666666667</v>
@@ -7183,7 +7183,7 @@
     </row>
     <row r="840">
       <c r="A840" t="n">
-        <v>79.77525333333332</v>
+        <v>79.77533172094607</v>
       </c>
       <c r="B840" t="n">
         <v>13.83333333333333</v>
@@ -7191,7 +7191,7 @@
     </row>
     <row r="841">
       <c r="A841" t="n">
-        <v>79.70033777777776</v>
+        <v>79.70049452287653</v>
       </c>
       <c r="B841" t="n">
         <v>13.85</v>
@@ -7199,7 +7199,7 @@
     </row>
     <row r="842">
       <c r="A842" t="n">
-        <v>79.6254222222222</v>
+        <v>79.6256834138614</v>
       </c>
       <c r="B842" t="n">
         <v>13.86666666666667</v>
@@ -7207,7 +7207,7 @@
     </row>
     <row r="843">
       <c r="A843" t="n">
-        <v>79.55050666666664</v>
+        <v>79.55089837886598</v>
       </c>
       <c r="B843" t="n">
         <v>13.88333333333333</v>
@@ -7215,7 +7215,7 @@
     </row>
     <row r="844">
       <c r="A844" t="n">
-        <v>79.47559111111107</v>
+        <v>79.47613940286706</v>
       </c>
       <c r="B844" t="n">
         <v>13.9</v>
@@ -7223,7 +7223,7 @@
     </row>
     <row r="845">
       <c r="A845" t="n">
-        <v>79.40067555555552</v>
+        <v>79.40140647085286</v>
       </c>
       <c r="B845" t="n">
         <v>13.91666666666667</v>
@@ -7231,7 +7231,7 @@
     </row>
     <row r="846">
       <c r="A846" t="n">
-        <v>79.32575999999996</v>
+        <v>79.32669956782298</v>
       </c>
       <c r="B846" t="n">
         <v>13.93333333333333</v>
@@ -7239,7 +7239,7 @@
     </row>
     <row r="847">
       <c r="A847" t="n">
-        <v>79.2508444444444</v>
+        <v>79.25201867878852</v>
       </c>
       <c r="B847" t="n">
         <v>13.95</v>
@@ -7247,7 +7247,7 @@
     </row>
     <row r="848">
       <c r="A848" t="n">
-        <v>79.17592888888883</v>
+        <v>79.17736378877188</v>
       </c>
       <c r="B848" t="n">
         <v>13.96666666666667</v>
@@ -7255,7 +7255,7 @@
     </row>
     <row r="849">
       <c r="A849" t="n">
-        <v>79.10101333333327</v>
+        <v>79.10273488280698</v>
       </c>
       <c r="B849" t="n">
         <v>13.98333333333333</v>
@@ -7263,7 +7263,7 @@
     </row>
     <row r="850">
       <c r="A850" t="n">
-        <v>79.02609777777772</v>
+        <v>79.02813194593905</v>
       </c>
       <c r="B850" t="n">
         <v>14</v>
@@ -7335,7 +7335,7 @@
     </row>
     <row r="859">
       <c r="A859" t="n">
-        <v>74.92508444444444</v>
+        <v>74.92681562499999</v>
       </c>
       <c r="B859" t="n">
         <v>14.15</v>
@@ -7343,7 +7343,7 @@
     </row>
     <row r="860">
       <c r="A860" t="n">
-        <v>74.85016888888887</v>
+        <v>74.85365639208986</v>
       </c>
       <c r="B860" t="n">
         <v>14.16666666666667</v>
@@ -7351,7 +7351,7 @@
     </row>
     <row r="861">
       <c r="A861" t="n">
-        <v>74.77525333333332</v>
+        <v>74.78052228695186</v>
       </c>
       <c r="B861" t="n">
         <v>14.18333333333333</v>
@@ -7359,7 +7359,7 @@
     </row>
     <row r="862">
       <c r="A862" t="n">
-        <v>74.70033777777776</v>
+        <v>74.707413295279</v>
       </c>
       <c r="B862" t="n">
         <v>14.2</v>
@@ -7367,7 +7367,7 @@
     </row>
     <row r="863">
       <c r="A863" t="n">
-        <v>74.6254222222222</v>
+        <v>74.63432940277502</v>
       </c>
       <c r="B863" t="n">
         <v>14.21666666666667</v>
@@ -7375,7 +7375,7 @@
     </row>
     <row r="864">
       <c r="A864" t="n">
-        <v>74.55050666666664</v>
+        <v>74.5612705951545</v>
       </c>
       <c r="B864" t="n">
         <v>14.23333333333333</v>
@@ -7383,7 +7383,7 @@
     </row>
     <row r="865">
       <c r="A865" t="n">
-        <v>74.47559111111107</v>
+        <v>74.48823685814266</v>
       </c>
       <c r="B865" t="n">
         <v>14.25</v>
@@ -7391,7 +7391,7 @@
     </row>
     <row r="866">
       <c r="A866" t="n">
-        <v>70.15559111111108</v>
+        <v>70.16823685814265</v>
       </c>
       <c r="B866" t="n">
         <v>14.26666666666667</v>
@@ -7399,7 +7399,7 @@
     </row>
     <row r="867">
       <c r="A867" t="n">
-        <v>65.83559111111109</v>
+        <v>65.84823685814266</v>
       </c>
       <c r="B867" t="n">
         <v>14.28333333333333</v>
@@ -7407,7 +7407,7 @@
     </row>
     <row r="868">
       <c r="A868" t="n">
-        <v>61.51559111111108</v>
+        <v>61.52823685814266</v>
       </c>
       <c r="B868" t="n">
         <v>14.3</v>
@@ -7415,7 +7415,7 @@
     </row>
     <row r="869">
       <c r="A869" t="n">
-        <v>57.19559111111109</v>
+        <v>57.20823685814266</v>
       </c>
       <c r="B869" t="n">
         <v>14.31666666666667</v>
@@ -7423,7 +7423,7 @@
     </row>
     <row r="870">
       <c r="A870" t="n">
-        <v>52.87559111111109</v>
+        <v>52.88823685814267</v>
       </c>
       <c r="B870" t="n">
         <v>14.33333333333333</v>
@@ -7431,7 +7431,7 @@
     </row>
     <row r="871">
       <c r="A871" t="n">
-        <v>48.55559111111109</v>
+        <v>48.56823685814267</v>
       </c>
       <c r="B871" t="n">
         <v>14.35</v>
@@ -7439,7 +7439,7 @@
     </row>
     <row r="872">
       <c r="A872" t="n">
-        <v>44.23559111111109</v>
+        <v>44.24823685814268</v>
       </c>
       <c r="B872" t="n">
         <v>14.36666666666667</v>
@@ -7447,7 +7447,7 @@
     </row>
     <row r="873">
       <c r="A873" t="n">
-        <v>39.91559111111109</v>
+        <v>39.92823685814268</v>
       </c>
       <c r="B873" t="n">
         <v>14.38333333333333</v>
@@ -7455,7 +7455,7 @@
     </row>
     <row r="874">
       <c r="A874" t="n">
-        <v>35.59559111111109</v>
+        <v>35.60823685814267</v>
       </c>
       <c r="B874" t="n">
         <v>14.4</v>
@@ -7463,7 +7463,7 @@
     </row>
     <row r="875">
       <c r="A875" t="n">
-        <v>31.2755911111111</v>
+        <v>31.28823685814268</v>
       </c>
       <c r="B875" t="n">
         <v>14.41666666666667</v>
@@ -7471,7 +7471,7 @@
     </row>
     <row r="876">
       <c r="A876" t="n">
-        <v>26.9555911111111</v>
+        <v>26.96823685814268</v>
       </c>
       <c r="B876" t="n">
         <v>14.43333333333333</v>
@@ -7479,7 +7479,7 @@
     </row>
     <row r="877">
       <c r="A877" t="n">
-        <v>22.6355911111111</v>
+        <v>22.64823685814268</v>
       </c>
       <c r="B877" t="n">
         <v>14.45</v>
@@ -7487,7 +7487,7 @@
     </row>
     <row r="878">
       <c r="A878" t="n">
-        <v>18.3155911111111</v>
+        <v>18.32823685814268</v>
       </c>
       <c r="B878" t="n">
         <v>14.46666666666667</v>
@@ -7495,7 +7495,7 @@
     </row>
     <row r="879">
       <c r="A879" t="n">
-        <v>13.9955911111111</v>
+        <v>14.00823685814268</v>
       </c>
       <c r="B879" t="n">
         <v>14.48333333333333</v>
@@ -7503,7 +7503,7 @@
     </row>
     <row r="880">
       <c r="A880" t="n">
-        <v>9.675591111111096</v>
+        <v>9.688236858142677</v>
       </c>
       <c r="B880" t="n">
         <v>14.5</v>
@@ -7511,7 +7511,7 @@
     </row>
     <row r="881">
       <c r="A881" t="n">
-        <v>5.355591111111096</v>
+        <v>5.368236858142676</v>
       </c>
       <c r="B881" t="n">
         <v>14.51666666666667</v>
@@ -7519,7 +7519,7 @@
     </row>
     <row r="882">
       <c r="A882" t="n">
-        <v>1.035591111111096</v>
+        <v>1.048236858142676</v>
       </c>
       <c r="B882" t="n">
         <v>14.53333333333333</v>
@@ -8015,7 +8015,7 @@
     </row>
     <row r="944">
       <c r="A944" t="n">
-        <v>79.85016888888887</v>
+        <v>79.85019502311617</v>
       </c>
       <c r="B944" t="n">
         <v>15.55</v>
@@ -8023,7 +8023,7 @@
     </row>
     <row r="945">
       <c r="A945" t="n">
-        <v>79.77525333333332</v>
+        <v>79.77533172094607</v>
       </c>
       <c r="B945" t="n">
         <v>15.56666666666667</v>
@@ -8031,7 +8031,7 @@
     </row>
     <row r="946">
       <c r="A946" t="n">
-        <v>79.70033777777776</v>
+        <v>79.70049452287653</v>
       </c>
       <c r="B946" t="n">
         <v>15.58333333333333</v>
@@ -8039,7 +8039,7 @@
     </row>
     <row r="947">
       <c r="A947" t="n">
-        <v>79.6254222222222</v>
+        <v>79.6256834138614</v>
       </c>
       <c r="B947" t="n">
         <v>15.6</v>
@@ -8047,7 +8047,7 @@
     </row>
     <row r="948">
       <c r="A948" t="n">
-        <v>79.55050666666664</v>
+        <v>79.55089837886598</v>
       </c>
       <c r="B948" t="n">
         <v>15.61666666666667</v>
@@ -8727,7 +8727,7 @@
     </row>
     <row r="1033">
       <c r="A1033" t="n">
-        <v>79.85016888888887</v>
+        <v>79.85019502311617</v>
       </c>
       <c r="B1033" t="n">
         <v>17.01666666666667</v>
@@ -8735,7 +8735,7 @@
     </row>
     <row r="1034">
       <c r="A1034" t="n">
-        <v>79.77525333333332</v>
+        <v>79.77533172094607</v>
       </c>
       <c r="B1034" t="n">
         <v>17.03333333333333</v>
@@ -8791,7 +8791,7 @@
     </row>
     <row r="1041">
       <c r="A1041" t="n">
-        <v>79.85016888888887</v>
+        <v>79.85019502311617</v>
       </c>
       <c r="B1041" t="n">
         <v>17.15</v>
@@ -8799,7 +8799,7 @@
     </row>
     <row r="1042">
       <c r="A1042" t="n">
-        <v>79.77525333333332</v>
+        <v>79.77533172094607</v>
       </c>
       <c r="B1042" t="n">
         <v>17.16666666666667</v>
@@ -8807,7 +8807,7 @@
     </row>
     <row r="1043">
       <c r="A1043" t="n">
-        <v>79.70033777777776</v>
+        <v>79.70049452287653</v>
       </c>
       <c r="B1043" t="n">
         <v>17.18333333333333</v>
@@ -8815,7 +8815,7 @@
     </row>
     <row r="1044">
       <c r="A1044" t="n">
-        <v>79.6254222222222</v>
+        <v>79.6256834138614</v>
       </c>
       <c r="B1044" t="n">
         <v>17.2</v>
@@ -8823,7 +8823,7 @@
     </row>
     <row r="1045">
       <c r="A1045" t="n">
-        <v>79.55050666666664</v>
+        <v>79.55089837886598</v>
       </c>
       <c r="B1045" t="n">
         <v>17.21666666666667</v>
@@ -8831,7 +8831,7 @@
     </row>
     <row r="1046">
       <c r="A1046" t="n">
-        <v>79.47559111111107</v>
+        <v>79.47613940286706</v>
       </c>
       <c r="B1046" t="n">
         <v>17.23333333333333</v>
@@ -8839,7 +8839,7 @@
     </row>
     <row r="1047">
       <c r="A1047" t="n">
-        <v>79.40067555555552</v>
+        <v>79.40140647085286</v>
       </c>
       <c r="B1047" t="n">
         <v>17.25</v>
@@ -8847,7 +8847,7 @@
     </row>
     <row r="1048">
       <c r="A1048" t="n">
-        <v>79.32575999999996</v>
+        <v>79.32669956782298</v>
       </c>
       <c r="B1048" t="n">
         <v>17.26666666666667</v>
@@ -8855,7 +8855,7 @@
     </row>
     <row r="1049">
       <c r="A1049" t="n">
-        <v>79.2508444444444</v>
+        <v>79.25201867878852</v>
       </c>
       <c r="B1049" t="n">
         <v>17.28333333333333</v>
@@ -8863,7 +8863,7 @@
     </row>
     <row r="1050">
       <c r="A1050" t="n">
-        <v>79.17592888888883</v>
+        <v>79.17736378877188</v>
       </c>
       <c r="B1050" t="n">
         <v>17.3</v>
@@ -8871,7 +8871,7 @@
     </row>
     <row r="1051">
       <c r="A1051" t="n">
-        <v>79.10101333333327</v>
+        <v>79.10273488280698</v>
       </c>
       <c r="B1051" t="n">
         <v>17.31666666666667</v>
@@ -9599,7 +9599,7 @@
     </row>
     <row r="1142">
       <c r="A1142" t="n">
-        <v>79.85016888888887</v>
+        <v>79.85019502311617</v>
       </c>
       <c r="B1142" t="n">
         <v>18.81666666666667</v>
@@ -9607,7 +9607,7 @@
     </row>
     <row r="1143">
       <c r="A1143" t="n">
-        <v>79.77525333333332</v>
+        <v>79.77533172094607</v>
       </c>
       <c r="B1143" t="n">
         <v>18.83333333333333</v>
@@ -9615,7 +9615,7 @@
     </row>
     <row r="1144">
       <c r="A1144" t="n">
-        <v>79.70033777777776</v>
+        <v>79.70049452287653</v>
       </c>
       <c r="B1144" t="n">
         <v>18.85</v>
@@ -9623,7 +9623,7 @@
     </row>
     <row r="1145">
       <c r="A1145" t="n">
-        <v>79.6254222222222</v>
+        <v>79.6256834138614</v>
       </c>
       <c r="B1145" t="n">
         <v>18.86666666666667</v>
@@ -9631,7 +9631,7 @@
     </row>
     <row r="1146">
       <c r="A1146" t="n">
-        <v>79.55050666666664</v>
+        <v>79.55089837886598</v>
       </c>
       <c r="B1146" t="n">
         <v>18.88333333333333</v>
@@ -9815,7 +9815,7 @@
     </row>
     <row r="1169">
       <c r="A1169" t="n">
-        <v>79.85016888888887</v>
+        <v>79.85019502311617</v>
       </c>
       <c r="B1169" t="n">
         <v>19.26666666666667</v>
@@ -9855,7 +9855,7 @@
     </row>
     <row r="1174">
       <c r="A1174" t="n">
-        <v>79.85016888888887</v>
+        <v>79.85019502311617</v>
       </c>
       <c r="B1174" t="n">
         <v>19.35</v>
@@ -9863,7 +9863,7 @@
     </row>
     <row r="1175">
       <c r="A1175" t="n">
-        <v>79.77525333333332</v>
+        <v>79.77533172094607</v>
       </c>
       <c r="B1175" t="n">
         <v>19.36666666666667</v>
@@ -9871,7 +9871,7 @@
     </row>
     <row r="1176">
       <c r="A1176" t="n">
-        <v>75.45525333333332</v>
+        <v>75.45533172094608</v>
       </c>
       <c r="B1176" t="n">
         <v>19.38333333333333</v>
@@ -9879,7 +9879,7 @@
     </row>
     <row r="1177">
       <c r="A1177" t="n">
-        <v>71.13525333333332</v>
+        <v>71.13533172094608</v>
       </c>
       <c r="B1177" t="n">
         <v>19.4</v>
@@ -9887,7 +9887,7 @@
     </row>
     <row r="1178">
       <c r="A1178" t="n">
-        <v>66.81525333333333</v>
+        <v>66.81533172094608</v>
       </c>
       <c r="B1178" t="n">
         <v>19.41666666666667</v>
@@ -9895,7 +9895,7 @@
     </row>
     <row r="1179">
       <c r="A1179" t="n">
-        <v>62.49525333333332</v>
+        <v>62.49533172094608</v>
       </c>
       <c r="B1179" t="n">
         <v>19.43333333333333</v>
@@ -9903,7 +9903,7 @@
     </row>
     <row r="1180">
       <c r="A1180" t="n">
-        <v>58.17525333333333</v>
+        <v>58.17533172094609</v>
       </c>
       <c r="B1180" t="n">
         <v>19.45</v>
@@ -9911,7 +9911,7 @@
     </row>
     <row r="1181">
       <c r="A1181" t="n">
-        <v>53.85525333333332</v>
+        <v>53.85533172094608</v>
       </c>
       <c r="B1181" t="n">
         <v>19.46666666666667</v>
@@ -9919,7 +9919,7 @@
     </row>
     <row r="1182">
       <c r="A1182" t="n">
-        <v>49.53525333333333</v>
+        <v>49.53533172094609</v>
       </c>
       <c r="B1182" t="n">
         <v>19.48333333333333</v>
@@ -9927,7 +9927,7 @@
     </row>
     <row r="1183">
       <c r="A1183" t="n">
-        <v>45.21525333333334</v>
+        <v>45.21533172094609</v>
       </c>
       <c r="B1183" t="n">
         <v>19.5</v>
@@ -9935,7 +9935,7 @@
     </row>
     <row r="1184">
       <c r="A1184" t="n">
-        <v>40.89525333333334</v>
+        <v>40.89533172094609</v>
       </c>
       <c r="B1184" t="n">
         <v>19.51666666666667</v>
@@ -9943,7 +9943,7 @@
     </row>
     <row r="1185">
       <c r="A1185" t="n">
-        <v>36.57525333333334</v>
+        <v>36.5753317209461</v>
       </c>
       <c r="B1185" t="n">
         <v>19.53333333333333</v>
@@ -9951,7 +9951,7 @@
     </row>
     <row r="1186">
       <c r="A1186" t="n">
-        <v>32.25525333333334</v>
+        <v>32.2553317209461</v>
       </c>
       <c r="B1186" t="n">
         <v>19.55</v>
@@ -9959,7 +9959,7 @@
     </row>
     <row r="1187">
       <c r="A1187" t="n">
-        <v>27.93525333333334</v>
+        <v>27.9353317209461</v>
       </c>
       <c r="B1187" t="n">
         <v>19.56666666666667</v>
@@ -9967,7 +9967,7 @@
     </row>
     <row r="1188">
       <c r="A1188" t="n">
-        <v>23.61525333333334</v>
+        <v>23.6153317209461</v>
       </c>
       <c r="B1188" t="n">
         <v>19.58333333333333</v>
@@ -9975,7 +9975,7 @@
     </row>
     <row r="1189">
       <c r="A1189" t="n">
-        <v>19.29525333333334</v>
+        <v>19.29533172094609</v>
       </c>
       <c r="B1189" t="n">
         <v>19.6</v>
@@ -9983,7 +9983,7 @@
     </row>
     <row r="1190">
       <c r="A1190" t="n">
-        <v>14.97525333333334</v>
+        <v>14.97533172094609</v>
       </c>
       <c r="B1190" t="n">
         <v>19.61666666666667</v>
@@ -10495,7 +10495,7 @@
     </row>
     <row r="1254">
       <c r="A1254" t="n">
-        <v>79.85016888888887</v>
+        <v>79.85019502311617</v>
       </c>
       <c r="B1254" t="n">
         <v>20.66666666666667</v>
@@ -10503,7 +10503,7 @@
     </row>
     <row r="1255">
       <c r="A1255" t="n">
-        <v>79.77525333333332</v>
+        <v>79.77533172094607</v>
       </c>
       <c r="B1255" t="n">
         <v>20.68333333333333</v>
@@ -10511,7 +10511,7 @@
     </row>
     <row r="1256">
       <c r="A1256" t="n">
-        <v>79.70033777777776</v>
+        <v>79.70049452287653</v>
       </c>
       <c r="B1256" t="n">
         <v>20.7</v>
@@ -10519,7 +10519,7 @@
     </row>
     <row r="1257">
       <c r="A1257" t="n">
-        <v>75.38033777777775</v>
+        <v>75.38049452287653</v>
       </c>
       <c r="B1257" t="n">
         <v>20.71666666666667</v>
@@ -10527,7 +10527,7 @@
     </row>
     <row r="1258">
       <c r="A1258" t="n">
-        <v>71.06033777777776</v>
+        <v>71.06049452287652</v>
       </c>
       <c r="B1258" t="n">
         <v>20.73333333333333</v>
@@ -10535,7 +10535,7 @@
     </row>
     <row r="1259">
       <c r="A1259" t="n">
-        <v>66.74033777777777</v>
+        <v>66.74049452287653</v>
       </c>
       <c r="B1259" t="n">
         <v>20.75</v>
@@ -10543,7 +10543,7 @@
     </row>
     <row r="1260">
       <c r="A1260" t="n">
-        <v>62.42033777777776</v>
+        <v>62.42049452287654</v>
       </c>
       <c r="B1260" t="n">
         <v>20.76666666666667</v>
@@ -10551,7 +10551,7 @@
     </row>
     <row r="1261">
       <c r="A1261" t="n">
-        <v>58.10033777777777</v>
+        <v>58.10049452287653</v>
       </c>
       <c r="B1261" t="n">
         <v>20.78333333333333</v>
@@ -10559,7 +10559,7 @@
     </row>
     <row r="1262">
       <c r="A1262" t="n">
-        <v>53.78033777777777</v>
+        <v>53.78049452287654</v>
       </c>
       <c r="B1262" t="n">
         <v>20.8</v>
@@ -10567,7 +10567,7 @@
     </row>
     <row r="1263">
       <c r="A1263" t="n">
-        <v>49.46033777777777</v>
+        <v>49.46049452287654</v>
       </c>
       <c r="B1263" t="n">
         <v>20.81666666666667</v>
@@ -10575,7 +10575,7 @@
     </row>
     <row r="1264">
       <c r="A1264" t="n">
-        <v>45.14033777777778</v>
+        <v>45.14049452287654</v>
       </c>
       <c r="B1264" t="n">
         <v>20.83333333333333</v>
@@ -10583,7 +10583,7 @@
     </row>
     <row r="1265">
       <c r="A1265" t="n">
-        <v>40.82033777777778</v>
+        <v>40.82049452287655</v>
       </c>
       <c r="B1265" t="n">
         <v>20.85</v>
@@ -10591,7 +10591,7 @@
     </row>
     <row r="1266">
       <c r="A1266" t="n">
-        <v>36.50033777777778</v>
+        <v>36.50049452287655</v>
       </c>
       <c r="B1266" t="n">
         <v>20.86666666666667</v>
@@ -10599,7 +10599,7 @@
     </row>
     <row r="1267">
       <c r="A1267" t="n">
-        <v>32.18033777777778</v>
+        <v>32.18049452287655</v>
       </c>
       <c r="B1267" t="n">
         <v>20.88333333333333</v>
@@ -10607,7 +10607,7 @@
     </row>
     <row r="1268">
       <c r="A1268" t="n">
-        <v>27.86033777777778</v>
+        <v>27.86049452287655</v>
       </c>
       <c r="B1268" t="n">
         <v>20.9</v>
@@ -10615,7 +10615,7 @@
     </row>
     <row r="1269">
       <c r="A1269" t="n">
-        <v>23.54033777777778</v>
+        <v>23.54049452287655</v>
       </c>
       <c r="B1269" t="n">
         <v>20.91666666666667</v>
@@ -10623,7 +10623,7 @@
     </row>
     <row r="1270">
       <c r="A1270" t="n">
-        <v>19.22033777777778</v>
+        <v>19.22049452287655</v>
       </c>
       <c r="B1270" t="n">
         <v>20.93333333333333</v>
@@ -10631,7 +10631,7 @@
     </row>
     <row r="1271">
       <c r="A1271" t="n">
-        <v>14.90033777777778</v>
+        <v>14.90049452287655</v>
       </c>
       <c r="B1271" t="n">
         <v>20.95</v>
@@ -10639,7 +10639,7 @@
     </row>
     <row r="1272">
       <c r="A1272" t="n">
-        <v>10.58033777777778</v>
+        <v>10.58049452287655</v>
       </c>
       <c r="B1272" t="n">
         <v>20.96666666666667</v>
@@ -11135,7 +11135,7 @@
     </row>
     <row r="1334">
       <c r="A1334" t="n">
-        <v>79.85016888888887</v>
+        <v>79.85019502311617</v>
       </c>
       <c r="B1334" t="n">
         <v>21.98333333333333</v>
@@ -11143,7 +11143,7 @@
     </row>
     <row r="1335">
       <c r="A1335" t="n">
-        <v>79.77525333333332</v>
+        <v>79.77533172094607</v>
       </c>
       <c r="B1335" t="n">
         <v>22</v>
@@ -11151,7 +11151,7 @@
     </row>
     <row r="1336">
       <c r="A1336" t="n">
-        <v>79.70033777777776</v>
+        <v>79.70049452287653</v>
       </c>
       <c r="B1336" t="n">
         <v>22.01666666666667</v>
@@ -11279,7 +11279,7 @@
     </row>
     <row r="1352">
       <c r="A1352" t="n">
-        <v>79.85016888888887</v>
+        <v>79.85019502311617</v>
       </c>
       <c r="B1352" t="n">
         <v>22.28333333333333</v>
@@ -11287,7 +11287,7 @@
     </row>
     <row r="1353">
       <c r="A1353" t="n">
-        <v>79.77525333333332</v>
+        <v>79.77533172094607</v>
       </c>
       <c r="B1353" t="n">
         <v>22.3</v>
@@ -11343,7 +11343,7 @@
     </row>
     <row r="1360">
       <c r="A1360" t="n">
-        <v>64.92508444444445</v>
+        <v>64.93019840277778</v>
       </c>
       <c r="B1360" t="n">
         <v>22.41666666666667</v>
@@ -11351,7 +11351,7 @@
     </row>
     <row r="1361">
       <c r="A1361" t="n">
-        <v>64.85016888888887</v>
+        <v>64.86042004496349</v>
       </c>
       <c r="B1361" t="n">
         <v>22.43333333333333</v>
@@ -11359,7 +11359,7 @@
     </row>
     <row r="1362">
       <c r="A1362" t="n">
-        <v>64.77525333333332</v>
+        <v>64.79066491365249</v>
       </c>
       <c r="B1362" t="n">
         <v>22.45</v>
@@ -11367,7 +11367,7 @@
     </row>
     <row r="1363">
       <c r="A1363" t="n">
-        <v>64.70033777777776</v>
+        <v>64.7209329959496</v>
       </c>
       <c r="B1363" t="n">
         <v>22.46666666666667</v>
@@ -11375,7 +11375,7 @@
     </row>
     <row r="1364">
       <c r="A1364" t="n">
-        <v>64.62542222222221</v>
+        <v>64.65122427896904</v>
       </c>
       <c r="B1364" t="n">
         <v>22.48333333333333</v>
@@ -11383,7 +11383,7 @@
     </row>
     <row r="1365">
       <c r="A1365" t="n">
-        <v>64.55050666666664</v>
+        <v>64.58153874983454</v>
       </c>
       <c r="B1365" t="n">
         <v>22.5</v>
@@ -11391,7 +11391,7 @@
     </row>
     <row r="1366">
       <c r="A1366" t="n">
-        <v>64.47559111111109</v>
+        <v>64.5118763956792</v>
       </c>
       <c r="B1366" t="n">
         <v>22.51666666666667</v>
@@ -11399,7 +11399,7 @@
     </row>
     <row r="1367">
       <c r="A1367" t="n">
-        <v>64.40067555555552</v>
+        <v>64.44223720364559</v>
       </c>
       <c r="B1367" t="n">
         <v>22.53333333333333</v>
@@ -11407,7 +11407,7 @@
     </row>
     <row r="1368">
       <c r="A1368" t="n">
-        <v>64.32575999999997</v>
+        <v>64.37262116088567</v>
       </c>
       <c r="B1368" t="n">
         <v>22.55</v>
@@ -11415,7 +11415,7 @@
     </row>
     <row r="1369">
       <c r="A1369" t="n">
-        <v>64.2508444444444</v>
+        <v>64.30302825456079</v>
       </c>
       <c r="B1369" t="n">
         <v>22.56666666666667</v>
@@ -11423,7 +11423,7 @@
     </row>
     <row r="1370">
       <c r="A1370" t="n">
-        <v>64.17592888888885</v>
+        <v>64.23345847184171</v>
       </c>
       <c r="B1370" t="n">
         <v>22.58333333333333</v>
@@ -11431,7 +11431,7 @@
     </row>
     <row r="1371">
       <c r="A1371" t="n">
-        <v>64.10101333333327</v>
+        <v>64.16391179990858</v>
       </c>
       <c r="B1371" t="n">
         <v>22.6</v>
@@ -12743,7 +12743,7 @@
     </row>
     <row r="1535">
       <c r="A1535" t="n">
-        <v>79.85016888888887</v>
+        <v>79.85019502311617</v>
       </c>
       <c r="B1535" t="n">
         <v>25.31666666666667</v>
@@ -12751,7 +12751,7 @@
     </row>
     <row r="1536">
       <c r="A1536" t="n">
-        <v>79.77525333333332</v>
+        <v>79.77533172094607</v>
       </c>
       <c r="B1536" t="n">
         <v>25.33333333333333</v>
@@ -12759,7 +12759,7 @@
     </row>
     <row r="1537">
       <c r="A1537" t="n">
-        <v>79.70033777777776</v>
+        <v>79.70049452287653</v>
       </c>
       <c r="B1537" t="n">
         <v>25.35</v>
@@ -12767,7 +12767,7 @@
     </row>
     <row r="1538">
       <c r="A1538" t="n">
-        <v>79.6254222222222</v>
+        <v>79.6256834138614</v>
       </c>
       <c r="B1538" t="n">
         <v>25.36666666666667</v>
@@ -12775,7 +12775,7 @@
     </row>
     <row r="1539">
       <c r="A1539" t="n">
-        <v>79.55050666666664</v>
+        <v>79.55089837886598</v>
       </c>
       <c r="B1539" t="n">
         <v>25.38333333333333</v>
@@ -12783,7 +12783,7 @@
     </row>
     <row r="1540">
       <c r="A1540" t="n">
-        <v>79.47559111111107</v>
+        <v>79.47613940286706</v>
       </c>
       <c r="B1540" t="n">
         <v>25.4</v>
@@ -12791,7 +12791,7 @@
     </row>
     <row r="1541">
       <c r="A1541" t="n">
-        <v>79.40067555555552</v>
+        <v>79.40140647085286</v>
       </c>
       <c r="B1541" t="n">
         <v>25.41666666666667</v>
@@ -12799,7 +12799,7 @@
     </row>
     <row r="1542">
       <c r="A1542" t="n">
-        <v>79.32575999999996</v>
+        <v>79.32669956782298</v>
       </c>
       <c r="B1542" t="n">
         <v>25.43333333333333</v>
@@ -12807,7 +12807,7 @@
     </row>
     <row r="1543">
       <c r="A1543" t="n">
-        <v>79.2508444444444</v>
+        <v>79.25201867878852</v>
       </c>
       <c r="B1543" t="n">
         <v>25.45</v>
@@ -12815,7 +12815,7 @@
     </row>
     <row r="1544">
       <c r="A1544" t="n">
-        <v>79.17592888888883</v>
+        <v>79.17736378877188</v>
       </c>
       <c r="B1544" t="n">
         <v>25.46666666666667</v>
@@ -12823,7 +12823,7 @@
     </row>
     <row r="1545">
       <c r="A1545" t="n">
-        <v>79.10101333333327</v>
+        <v>79.10273488280698</v>
       </c>
       <c r="B1545" t="n">
         <v>25.48333333333333</v>
@@ -12831,7 +12831,7 @@
     </row>
     <row r="1546">
       <c r="A1546" t="n">
-        <v>79.02609777777772</v>
+        <v>79.02813194593905</v>
       </c>
       <c r="B1546" t="n">
         <v>25.5</v>
@@ -12839,7 +12839,7 @@
     </row>
     <row r="1547">
       <c r="A1547" t="n">
-        <v>78.95118222222216</v>
+        <v>78.9535549632247</v>
       </c>
       <c r="B1547" t="n">
         <v>25.51666666666667</v>
@@ -12847,7 +12847,7 @@
     </row>
     <row r="1548">
       <c r="A1548" t="n">
-        <v>78.8762666666666</v>
+        <v>78.87900391973193</v>
       </c>
       <c r="B1548" t="n">
         <v>25.53333333333333</v>
@@ -12855,7 +12855,7 @@
     </row>
     <row r="1549">
       <c r="A1549" t="n">
-        <v>74.55626666666659</v>
+        <v>74.55900391973194</v>
       </c>
       <c r="B1549" t="n">
         <v>25.55</v>
@@ -12863,7 +12863,7 @@
     </row>
     <row r="1550">
       <c r="A1550" t="n">
-        <v>70.23626666666659</v>
+        <v>70.23900391973193</v>
       </c>
       <c r="B1550" t="n">
         <v>25.56666666666667</v>
@@ -12871,7 +12871,7 @@
     </row>
     <row r="1551">
       <c r="A1551" t="n">
-        <v>65.9162666666666</v>
+        <v>65.91900391973194</v>
       </c>
       <c r="B1551" t="n">
         <v>25.58333333333333</v>
@@ -12879,7 +12879,7 @@
     </row>
     <row r="1552">
       <c r="A1552" t="n">
-        <v>61.5962666666666</v>
+        <v>61.59900391973194</v>
       </c>
       <c r="B1552" t="n">
         <v>25.6</v>
@@ -12887,7 +12887,7 @@
     </row>
     <row r="1553">
       <c r="A1553" t="n">
-        <v>57.27626666666661</v>
+        <v>57.27900391973194</v>
       </c>
       <c r="B1553" t="n">
         <v>25.61666666666667</v>
@@ -12895,7 +12895,7 @@
     </row>
     <row r="1554">
       <c r="A1554" t="n">
-        <v>52.9562666666666</v>
+        <v>52.95900391973195</v>
       </c>
       <c r="B1554" t="n">
         <v>25.63333333333333</v>
@@ -12903,7 +12903,7 @@
     </row>
     <row r="1555">
       <c r="A1555" t="n">
-        <v>48.63626666666661</v>
+        <v>48.63900391973195</v>
       </c>
       <c r="B1555" t="n">
         <v>25.65</v>
@@ -12911,7 +12911,7 @@
     </row>
     <row r="1556">
       <c r="A1556" t="n">
-        <v>44.31626666666661</v>
+        <v>44.31900391973195</v>
       </c>
       <c r="B1556" t="n">
         <v>25.66666666666667</v>
@@ -12919,7 +12919,7 @@
     </row>
     <row r="1557">
       <c r="A1557" t="n">
-        <v>39.99626666666661</v>
+        <v>39.99900391973195</v>
       </c>
       <c r="B1557" t="n">
         <v>25.68333333333333</v>
@@ -12927,7 +12927,7 @@
     </row>
     <row r="1558">
       <c r="A1558" t="n">
-        <v>35.67626666666662</v>
+        <v>35.67900391973195</v>
       </c>
       <c r="B1558" t="n">
         <v>25.7</v>
@@ -12935,7 +12935,7 @@
     </row>
     <row r="1559">
       <c r="A1559" t="n">
-        <v>31.35626666666662</v>
+        <v>31.35900391973196</v>
       </c>
       <c r="B1559" t="n">
         <v>25.71666666666667</v>
@@ -12943,7 +12943,7 @@
     </row>
     <row r="1560">
       <c r="A1560" t="n">
-        <v>27.03626666666662</v>
+        <v>27.03900391973195</v>
       </c>
       <c r="B1560" t="n">
         <v>25.73333333333333</v>
@@ -12951,7 +12951,7 @@
     </row>
     <row r="1561">
       <c r="A1561" t="n">
-        <v>22.71626666666662</v>
+        <v>22.71900391973195</v>
       </c>
       <c r="B1561" t="n">
         <v>25.75</v>
@@ -12959,7 +12959,7 @@
     </row>
     <row r="1562">
       <c r="A1562" t="n">
-        <v>18.39626666666662</v>
+        <v>18.39900391973196</v>
       </c>
       <c r="B1562" t="n">
         <v>25.76666666666667</v>
@@ -12967,7 +12967,7 @@
     </row>
     <row r="1563">
       <c r="A1563" t="n">
-        <v>14.07626666666662</v>
+        <v>14.07900391973195</v>
       </c>
       <c r="B1563" t="n">
         <v>25.78333333333333</v>
@@ -12975,7 +12975,7 @@
     </row>
     <row r="1564">
       <c r="A1564" t="n">
-        <v>9.756266666666617</v>
+        <v>9.759003919731954</v>
       </c>
       <c r="B1564" t="n">
         <v>25.8</v>
@@ -12983,7 +12983,7 @@
     </row>
     <row r="1565">
       <c r="A1565" t="n">
-        <v>5.436266666666617</v>
+        <v>5.439003919731954</v>
       </c>
       <c r="B1565" t="n">
         <v>25.81666666666667</v>
@@ -12991,7 +12991,7 @@
     </row>
     <row r="1566">
       <c r="A1566" t="n">
-        <v>1.116266666666617</v>
+        <v>1.119003919731954</v>
       </c>
       <c r="B1566" t="n">
         <v>25.83333333333333</v>
@@ -13487,7 +13487,7 @@
     </row>
     <row r="1628">
       <c r="A1628" t="n">
-        <v>79.85016888888887</v>
+        <v>79.85019502311617</v>
       </c>
       <c r="B1628" t="n">
         <v>26.85</v>
@@ -13495,7 +13495,7 @@
     </row>
     <row r="1629">
       <c r="A1629" t="n">
-        <v>79.77525333333332</v>
+        <v>79.77533172094607</v>
       </c>
       <c r="B1629" t="n">
         <v>26.86666666666667</v>
@@ -13503,7 +13503,7 @@
     </row>
     <row r="1630">
       <c r="A1630" t="n">
-        <v>79.70033777777776</v>
+        <v>79.70049452287653</v>
       </c>
       <c r="B1630" t="n">
         <v>26.88333333333333</v>
@@ -13511,7 +13511,7 @@
     </row>
     <row r="1631">
       <c r="A1631" t="n">
-        <v>79.6254222222222</v>
+        <v>79.6256834138614</v>
       </c>
       <c r="B1631" t="n">
         <v>26.9</v>
@@ -13735,7 +13735,7 @@
     </row>
     <row r="1659">
       <c r="A1659" t="n">
-        <v>79.85016888888887</v>
+        <v>79.85019502311617</v>
       </c>
       <c r="B1659" t="n">
         <v>27.36666666666667</v>
@@ -13743,7 +13743,7 @@
     </row>
     <row r="1660">
       <c r="A1660" t="n">
-        <v>79.77525333333332</v>
+        <v>79.77533172094607</v>
       </c>
       <c r="B1660" t="n">
         <v>27.38333333333333</v>
@@ -13751,7 +13751,7 @@
     </row>
     <row r="1661">
       <c r="A1661" t="n">
-        <v>79.70033777777776</v>
+        <v>79.70049452287653</v>
       </c>
       <c r="B1661" t="n">
         <v>27.4</v>
@@ -13759,7 +13759,7 @@
     </row>
     <row r="1662">
       <c r="A1662" t="n">
-        <v>79.6254222222222</v>
+        <v>79.6256834138614</v>
       </c>
       <c r="B1662" t="n">
         <v>27.41666666666667</v>
@@ -13767,7 +13767,7 @@
     </row>
     <row r="1663">
       <c r="A1663" t="n">
-        <v>79.55050666666664</v>
+        <v>79.55089837886598</v>
       </c>
       <c r="B1663" t="n">
         <v>27.43333333333333</v>
@@ -13775,7 +13775,7 @@
     </row>
     <row r="1664">
       <c r="A1664" t="n">
-        <v>79.47559111111107</v>
+        <v>79.47613940286706</v>
       </c>
       <c r="B1664" t="n">
         <v>27.45</v>
@@ -13783,7 +13783,7 @@
     </row>
     <row r="1665">
       <c r="A1665" t="n">
-        <v>79.40067555555552</v>
+        <v>79.40140647085286</v>
       </c>
       <c r="B1665" t="n">
         <v>27.46666666666667</v>
@@ -13791,7 +13791,7 @@
     </row>
     <row r="1666">
       <c r="A1666" t="n">
-        <v>79.32575999999996</v>
+        <v>79.32669956782298</v>
       </c>
       <c r="B1666" t="n">
         <v>27.48333333333333</v>
@@ -13799,7 +13799,7 @@
     </row>
     <row r="1667">
       <c r="A1667" t="n">
-        <v>79.2508444444444</v>
+        <v>79.25201867878852</v>
       </c>
       <c r="B1667" t="n">
         <v>27.5</v>
@@ -13807,7 +13807,7 @@
     </row>
     <row r="1668">
       <c r="A1668" t="n">
-        <v>79.17592888888883</v>
+        <v>79.17736378877188</v>
       </c>
       <c r="B1668" t="n">
         <v>27.51666666666667</v>
@@ -13815,7 +13815,7 @@
     </row>
     <row r="1669">
       <c r="A1669" t="n">
-        <v>79.10101333333327</v>
+        <v>79.10273488280698</v>
       </c>
       <c r="B1669" t="n">
         <v>27.53333333333333</v>
@@ -13823,7 +13823,7 @@
     </row>
     <row r="1670">
       <c r="A1670" t="n">
-        <v>79.02609777777772</v>
+        <v>79.02813194593905</v>
       </c>
       <c r="B1670" t="n">
         <v>27.55</v>
@@ -13831,7 +13831,7 @@
     </row>
     <row r="1671">
       <c r="A1671" t="n">
-        <v>78.95118222222216</v>
+        <v>78.9535549632247</v>
       </c>
       <c r="B1671" t="n">
         <v>27.56666666666667</v>
@@ -13839,7 +13839,7 @@
     </row>
     <row r="1672">
       <c r="A1672" t="n">
-        <v>78.8762666666666</v>
+        <v>78.87900391973193</v>
       </c>
       <c r="B1672" t="n">
         <v>27.58333333333333</v>
@@ -13847,7 +13847,7 @@
     </row>
     <row r="1673">
       <c r="A1673" t="n">
-        <v>78.80135111111103</v>
+        <v>78.80447880054007</v>
       </c>
       <c r="B1673" t="n">
         <v>27.6</v>
@@ -13855,7 +13855,7 @@
     </row>
     <row r="1674">
       <c r="A1674" t="n">
-        <v>78.72643555555547</v>
+        <v>78.7299795907398</v>
       </c>
       <c r="B1674" t="n">
         <v>27.61666666666667</v>
@@ -13863,7 +13863,7 @@
     </row>
     <row r="1675">
       <c r="A1675" t="n">
-        <v>74.40643555555548</v>
+        <v>74.40997959073979</v>
       </c>
       <c r="B1675" t="n">
         <v>27.63333333333333</v>
@@ -13871,7 +13871,7 @@
     </row>
     <row r="1676">
       <c r="A1676" t="n">
-        <v>70.08643555555548</v>
+        <v>70.0899795907398</v>
       </c>
       <c r="B1676" t="n">
         <v>27.65</v>
@@ -13879,7 +13879,7 @@
     </row>
     <row r="1677">
       <c r="A1677" t="n">
-        <v>65.76643555555549</v>
+        <v>65.76997959073981</v>
       </c>
       <c r="B1677" t="n">
         <v>27.66666666666667</v>
@@ -13887,7 +13887,7 @@
     </row>
     <row r="1678">
       <c r="A1678" t="n">
-        <v>61.44643555555548</v>
+        <v>61.4499795907398</v>
       </c>
       <c r="B1678" t="n">
         <v>27.68333333333333</v>
@@ -13895,7 +13895,7 @@
     </row>
     <row r="1679">
       <c r="A1679" t="n">
-        <v>57.12643555555549</v>
+        <v>57.12997959073981</v>
       </c>
       <c r="B1679" t="n">
         <v>27.7</v>
@@ -13903,7 +13903,7 @@
     </row>
     <row r="1680">
       <c r="A1680" t="n">
-        <v>52.80643555555548</v>
+        <v>52.80997959073981</v>
       </c>
       <c r="B1680" t="n">
         <v>27.71666666666667</v>
@@ -13911,7 +13911,7 @@
     </row>
     <row r="1681">
       <c r="A1681" t="n">
-        <v>48.48643555555549</v>
+        <v>48.48997959073981</v>
       </c>
       <c r="B1681" t="n">
         <v>27.73333333333333</v>
@@ -13919,7 +13919,7 @@
     </row>
     <row r="1682">
       <c r="A1682" t="n">
-        <v>44.16643555555549</v>
+        <v>44.16997959073981</v>
       </c>
       <c r="B1682" t="n">
         <v>27.75</v>
@@ -13927,7 +13927,7 @@
     </row>
     <row r="1683">
       <c r="A1683" t="n">
-        <v>39.84643555555549</v>
+        <v>39.84997959073981</v>
       </c>
       <c r="B1683" t="n">
         <v>27.76666666666667</v>
@@ -13935,7 +13935,7 @@
     </row>
     <row r="1684">
       <c r="A1684" t="n">
-        <v>35.52643555555549</v>
+        <v>35.52997959073982</v>
       </c>
       <c r="B1684" t="n">
         <v>27.78333333333333</v>
@@ -13943,7 +13943,7 @@
     </row>
     <row r="1685">
       <c r="A1685" t="n">
-        <v>31.2064355555555</v>
+        <v>31.20997959073982</v>
       </c>
       <c r="B1685" t="n">
         <v>27.8</v>
@@ -13951,7 +13951,7 @@
     </row>
     <row r="1686">
       <c r="A1686" t="n">
-        <v>26.8864355555555</v>
+        <v>26.88997959073982</v>
       </c>
       <c r="B1686" t="n">
         <v>27.81666666666667</v>
@@ -13959,7 +13959,7 @@
     </row>
     <row r="1687">
       <c r="A1687" t="n">
-        <v>22.5664355555555</v>
+        <v>22.56997959073982</v>
       </c>
       <c r="B1687" t="n">
         <v>27.83333333333333</v>
@@ -13967,7 +13967,7 @@
     </row>
     <row r="1688">
       <c r="A1688" t="n">
-        <v>18.2464355555555</v>
+        <v>18.24997959073982</v>
       </c>
       <c r="B1688" t="n">
         <v>27.85</v>
@@ -13975,7 +13975,7 @@
     </row>
     <row r="1689">
       <c r="A1689" t="n">
-        <v>13.9264355555555</v>
+        <v>13.92997959073982</v>
       </c>
       <c r="B1689" t="n">
         <v>27.86666666666667</v>
@@ -13983,7 +13983,7 @@
     </row>
     <row r="1690">
       <c r="A1690" t="n">
-        <v>9.606435555555496</v>
+        <v>9.609979590739821</v>
       </c>
       <c r="B1690" t="n">
         <v>27.88333333333333</v>
@@ -14519,7 +14519,7 @@
     </row>
     <row r="1757">
       <c r="A1757" t="n">
-        <v>79.85016888888887</v>
+        <v>79.85019502311617</v>
       </c>
       <c r="B1757" t="n">
         <v>28.98333333333333</v>
@@ -14527,7 +14527,7 @@
     </row>
     <row r="1758">
       <c r="A1758" t="n">
-        <v>79.77525333333332</v>
+        <v>79.77533172094607</v>
       </c>
       <c r="B1758" t="n">
         <v>29</v>
@@ -15199,7 +15199,7 @@
     </row>
     <row r="1842">
       <c r="A1842" t="n">
-        <v>79.85016888888887</v>
+        <v>79.85019502311617</v>
       </c>
       <c r="B1842" t="n">
         <v>30.38333333333333</v>
@@ -15207,7 +15207,7 @@
     </row>
     <row r="1843">
       <c r="A1843" t="n">
-        <v>79.77525333333332</v>
+        <v>79.77533172094607</v>
       </c>
       <c r="B1843" t="n">
         <v>30.4</v>
@@ -15215,7 +15215,7 @@
     </row>
     <row r="1844">
       <c r="A1844" t="n">
-        <v>79.70033777777776</v>
+        <v>79.70049452287653</v>
       </c>
       <c r="B1844" t="n">
         <v>30.41666666666667</v>
@@ -15223,7 +15223,7 @@
     </row>
     <row r="1845">
       <c r="A1845" t="n">
-        <v>79.6254222222222</v>
+        <v>79.6256834138614</v>
       </c>
       <c r="B1845" t="n">
         <v>30.43333333333333</v>
@@ -15231,7 +15231,7 @@
     </row>
     <row r="1846">
       <c r="A1846" t="n">
-        <v>79.55050666666664</v>
+        <v>79.55089837886598</v>
       </c>
       <c r="B1846" t="n">
         <v>30.45</v>
@@ -15239,7 +15239,7 @@
     </row>
     <row r="1847">
       <c r="A1847" t="n">
-        <v>79.47559111111107</v>
+        <v>79.47613940286706</v>
       </c>
       <c r="B1847" t="n">
         <v>30.46666666666667</v>
@@ -15247,7 +15247,7 @@
     </row>
     <row r="1848">
       <c r="A1848" t="n">
-        <v>79.40067555555552</v>
+        <v>79.40140647085286</v>
       </c>
       <c r="B1848" t="n">
         <v>30.48333333333333</v>
@@ -15255,7 +15255,7 @@
     </row>
     <row r="1849">
       <c r="A1849" t="n">
-        <v>79.32575999999996</v>
+        <v>79.32669956782298</v>
       </c>
       <c r="B1849" t="n">
         <v>30.5</v>
@@ -15263,7 +15263,7 @@
     </row>
     <row r="1850">
       <c r="A1850" t="n">
-        <v>79.2508444444444</v>
+        <v>79.25201867878852</v>
       </c>
       <c r="B1850" t="n">
         <v>30.51666666666667</v>
@@ -15271,7 +15271,7 @@
     </row>
     <row r="1851">
       <c r="A1851" t="n">
-        <v>79.17592888888883</v>
+        <v>79.17736378877188</v>
       </c>
       <c r="B1851" t="n">
         <v>30.53333333333333</v>
@@ -15367,7 +15367,7 @@
     </row>
     <row r="1863">
       <c r="A1863" t="n">
-        <v>79.85016888888887</v>
+        <v>79.85019502311617</v>
       </c>
       <c r="B1863" t="n">
         <v>30.73333333333333</v>
@@ -15375,7 +15375,7 @@
     </row>
     <row r="1864">
       <c r="A1864" t="n">
-        <v>79.77525333333332</v>
+        <v>79.77533172094607</v>
       </c>
       <c r="B1864" t="n">
         <v>30.75</v>
@@ -15383,7 +15383,7 @@
     </row>
     <row r="1865">
       <c r="A1865" t="n">
-        <v>79.70033777777776</v>
+        <v>79.70049452287653</v>
       </c>
       <c r="B1865" t="n">
         <v>30.76666666666667</v>
@@ -15391,7 +15391,7 @@
     </row>
     <row r="1866">
       <c r="A1866" t="n">
-        <v>79.6254222222222</v>
+        <v>79.6256834138614</v>
       </c>
       <c r="B1866" t="n">
         <v>30.78333333333333</v>
@@ -15399,7 +15399,7 @@
     </row>
     <row r="1867">
       <c r="A1867" t="n">
-        <v>79.55050666666664</v>
+        <v>79.55089837886598</v>
       </c>
       <c r="B1867" t="n">
         <v>30.8</v>
@@ -15407,7 +15407,7 @@
     </row>
     <row r="1868">
       <c r="A1868" t="n">
-        <v>79.47559111111107</v>
+        <v>79.47613940286706</v>
       </c>
       <c r="B1868" t="n">
         <v>30.81666666666667</v>
@@ -15415,7 +15415,7 @@
     </row>
     <row r="1869">
       <c r="A1869" t="n">
-        <v>79.40067555555552</v>
+        <v>79.40140647085286</v>
       </c>
       <c r="B1869" t="n">
         <v>30.83333333333333</v>
@@ -15423,7 +15423,7 @@
     </row>
     <row r="1870">
       <c r="A1870" t="n">
-        <v>79.32575999999996</v>
+        <v>79.32669956782298</v>
       </c>
       <c r="B1870" t="n">
         <v>30.85</v>
@@ -15431,7 +15431,7 @@
     </row>
     <row r="1871">
       <c r="A1871" t="n">
-        <v>79.2508444444444</v>
+        <v>79.25201867878852</v>
       </c>
       <c r="B1871" t="n">
         <v>30.86666666666667</v>
@@ -15439,7 +15439,7 @@
     </row>
     <row r="1872">
       <c r="A1872" t="n">
-        <v>79.17592888888883</v>
+        <v>79.17736378877188</v>
       </c>
       <c r="B1872" t="n">
         <v>30.88333333333333</v>
@@ -15447,7 +15447,7 @@
     </row>
     <row r="1873">
       <c r="A1873" t="n">
-        <v>79.10101333333327</v>
+        <v>79.10273488280698</v>
       </c>
       <c r="B1873" t="n">
         <v>30.9</v>
@@ -15455,7 +15455,7 @@
     </row>
     <row r="1874">
       <c r="A1874" t="n">
-        <v>79.02609777777772</v>
+        <v>79.02813194593905</v>
       </c>
       <c r="B1874" t="n">
         <v>30.91666666666667</v>
@@ -15463,7 +15463,7 @@
     </row>
     <row r="1875">
       <c r="A1875" t="n">
-        <v>78.95118222222216</v>
+        <v>78.9535549632247</v>
       </c>
       <c r="B1875" t="n">
         <v>30.93333333333333</v>
@@ -15471,7 +15471,7 @@
     </row>
     <row r="1876">
       <c r="A1876" t="n">
-        <v>78.8762666666666</v>
+        <v>78.87900391973193</v>
       </c>
       <c r="B1876" t="n">
         <v>30.95</v>
@@ -15479,7 +15479,7 @@
     </row>
     <row r="1877">
       <c r="A1877" t="n">
-        <v>78.80135111111103</v>
+        <v>78.80447880054007</v>
       </c>
       <c r="B1877" t="n">
         <v>30.96666666666667</v>
@@ -15487,7 +15487,7 @@
     </row>
     <row r="1878">
       <c r="A1878" t="n">
-        <v>78.72643555555547</v>
+        <v>78.7299795907398</v>
       </c>
       <c r="B1878" t="n">
         <v>30.98333333333333</v>
@@ -15495,7 +15495,7 @@
     </row>
     <row r="1879">
       <c r="A1879" t="n">
-        <v>78.65151999999992</v>
+        <v>78.65550627543314</v>
       </c>
       <c r="B1879" t="n">
         <v>31</v>
@@ -15503,7 +15503,7 @@
     </row>
     <row r="1880">
       <c r="A1880" t="n">
-        <v>78.57660444444436</v>
+        <v>78.58105883973342</v>
       </c>
       <c r="B1880" t="n">
         <v>31.01666666666667</v>
@@ -15511,7 +15511,7 @@
     </row>
     <row r="1881">
       <c r="A1881" t="n">
-        <v>78.50168888888879</v>
+        <v>78.50663726876527</v>
       </c>
       <c r="B1881" t="n">
         <v>31.03333333333333</v>
@@ -15519,7 +15519,7 @@
     </row>
     <row r="1882">
       <c r="A1882" t="n">
-        <v>74.18168888888879</v>
+        <v>74.18663726876528</v>
       </c>
       <c r="B1882" t="n">
         <v>31.05</v>
@@ -15527,7 +15527,7 @@
     </row>
     <row r="1883">
       <c r="A1883" t="n">
-        <v>69.86168888888879</v>
+        <v>69.86663726876529</v>
       </c>
       <c r="B1883" t="n">
         <v>31.06666666666667</v>
@@ -15535,7 +15535,7 @@
     </row>
     <row r="1884">
       <c r="A1884" t="n">
-        <v>65.5416888888888</v>
+        <v>65.54663726876529</v>
       </c>
       <c r="B1884" t="n">
         <v>31.08333333333333</v>
@@ -15543,7 +15543,7 @@
     </row>
     <row r="1885">
       <c r="A1885" t="n">
-        <v>61.2216888888888</v>
+        <v>61.22663726876529</v>
       </c>
       <c r="B1885" t="n">
         <v>31.1</v>
@@ -15551,7 +15551,7 @@
     </row>
     <row r="1886">
       <c r="A1886" t="n">
-        <v>56.90168888888881</v>
+        <v>56.9066372687653</v>
       </c>
       <c r="B1886" t="n">
         <v>31.11666666666667</v>
@@ -15559,7 +15559,7 @@
     </row>
     <row r="1887">
       <c r="A1887" t="n">
-        <v>52.58168888888881</v>
+        <v>52.5866372687653</v>
       </c>
       <c r="B1887" t="n">
         <v>31.13333333333333</v>
@@ -15567,7 +15567,7 @@
     </row>
     <row r="1888">
       <c r="A1888" t="n">
-        <v>48.26168888888881</v>
+        <v>48.26663726876531</v>
       </c>
       <c r="B1888" t="n">
         <v>31.15</v>
@@ -15575,7 +15575,7 @@
     </row>
     <row r="1889">
       <c r="A1889" t="n">
-        <v>43.94168888888881</v>
+        <v>43.94663726876531</v>
       </c>
       <c r="B1889" t="n">
         <v>31.16666666666667</v>
@@ -15583,7 +15583,7 @@
     </row>
     <row r="1890">
       <c r="A1890" t="n">
-        <v>39.62168888888881</v>
+        <v>39.62663726876531</v>
       </c>
       <c r="B1890" t="n">
         <v>31.18333333333333</v>
@@ -15591,7 +15591,7 @@
     </row>
     <row r="1891">
       <c r="A1891" t="n">
-        <v>35.30168888888882</v>
+        <v>35.30663726876531</v>
       </c>
       <c r="B1891" t="n">
         <v>31.2</v>
@@ -15599,7 +15599,7 @@
     </row>
     <row r="1892">
       <c r="A1892" t="n">
-        <v>30.98168888888882</v>
+        <v>30.98663726876531</v>
       </c>
       <c r="B1892" t="n">
         <v>31.21666666666667</v>
@@ -15607,7 +15607,7 @@
     </row>
     <row r="1893">
       <c r="A1893" t="n">
-        <v>26.66168888888882</v>
+        <v>26.66663726876531</v>
       </c>
       <c r="B1893" t="n">
         <v>31.23333333333333</v>
@@ -15615,7 +15615,7 @@
     </row>
     <row r="1894">
       <c r="A1894" t="n">
-        <v>22.34168888888882</v>
+        <v>22.34663726876531</v>
       </c>
       <c r="B1894" t="n">
         <v>31.25</v>
@@ -15623,7 +15623,7 @@
     </row>
     <row r="1895">
       <c r="A1895" t="n">
-        <v>18.02168888888882</v>
+        <v>18.02663726876531</v>
       </c>
       <c r="B1895" t="n">
         <v>31.26666666666667</v>
@@ -15631,7 +15631,7 @@
     </row>
     <row r="1896">
       <c r="A1896" t="n">
-        <v>13.70168888888882</v>
+        <v>13.70663726876531</v>
       </c>
       <c r="B1896" t="n">
         <v>31.28333333333333</v>
@@ -15639,7 +15639,7 @@
     </row>
     <row r="1897">
       <c r="A1897" t="n">
-        <v>9.381688888888815</v>
+        <v>9.386637268765309</v>
       </c>
       <c r="B1897" t="n">
         <v>31.3</v>
@@ -15647,7 +15647,7 @@
     </row>
     <row r="1898">
       <c r="A1898" t="n">
-        <v>5.061688888888815</v>
+        <v>5.06663726876531</v>
       </c>
       <c r="B1898" t="n">
         <v>31.31666666666667</v>
@@ -15655,7 +15655,7 @@
     </row>
     <row r="1899">
       <c r="A1899" t="n">
-        <v>0.7416888888888158</v>
+        <v>0.7466372687653097</v>
       </c>
       <c r="B1899" t="n">
         <v>31.33333333333333</v>
@@ -16151,7 +16151,7 @@
     </row>
     <row r="1961">
       <c r="A1961" t="n">
-        <v>79.85016888888887</v>
+        <v>79.85019502311617</v>
       </c>
       <c r="B1961" t="n">
         <v>32.35</v>
@@ -16159,7 +16159,7 @@
     </row>
     <row r="1962">
       <c r="A1962" t="n">
-        <v>79.77525333333332</v>
+        <v>79.77533172094607</v>
       </c>
       <c r="B1962" t="n">
         <v>32.36666666666667</v>
@@ -16167,7 +16167,7 @@
     </row>
     <row r="1963">
       <c r="A1963" t="n">
-        <v>79.70033777777776</v>
+        <v>79.70049452287653</v>
       </c>
       <c r="B1963" t="n">
         <v>32.38333333333333</v>
@@ -16175,7 +16175,7 @@
     </row>
     <row r="1964">
       <c r="A1964" t="n">
-        <v>79.6254222222222</v>
+        <v>79.6256834138614</v>
       </c>
       <c r="B1964" t="n">
         <v>32.4</v>
@@ -16183,7 +16183,7 @@
     </row>
     <row r="1965">
       <c r="A1965" t="n">
-        <v>79.55050666666664</v>
+        <v>79.55089837886598</v>
       </c>
       <c r="B1965" t="n">
         <v>32.41666666666666</v>
@@ -16191,7 +16191,7 @@
     </row>
     <row r="1966">
       <c r="A1966" t="n">
-        <v>79.47559111111107</v>
+        <v>79.47613940286706</v>
       </c>
       <c r="B1966" t="n">
         <v>32.43333333333333</v>
@@ -16199,7 +16199,7 @@
     </row>
     <row r="1967">
       <c r="A1967" t="n">
-        <v>79.40067555555552</v>
+        <v>79.40140647085286</v>
       </c>
       <c r="B1967" t="n">
         <v>32.45</v>
@@ -16207,7 +16207,7 @@
     </row>
     <row r="1968">
       <c r="A1968" t="n">
-        <v>79.32575999999996</v>
+        <v>79.32669956782298</v>
       </c>
       <c r="B1968" t="n">
         <v>32.46666666666667</v>
@@ -16215,7 +16215,7 @@
     </row>
     <row r="1969">
       <c r="A1969" t="n">
-        <v>79.2508444444444</v>
+        <v>79.25201867878852</v>
       </c>
       <c r="B1969" t="n">
         <v>32.48333333333333</v>
@@ -16223,7 +16223,7 @@
     </row>
     <row r="1970">
       <c r="A1970" t="n">
-        <v>79.17592888888883</v>
+        <v>79.17736378877188</v>
       </c>
       <c r="B1970" t="n">
         <v>32.5</v>
@@ -16231,7 +16231,7 @@
     </row>
     <row r="1971">
       <c r="A1971" t="n">
-        <v>79.10101333333327</v>
+        <v>79.10273488280698</v>
       </c>
       <c r="B1971" t="n">
         <v>32.51666666666667</v>
@@ -16239,7 +16239,7 @@
     </row>
     <row r="1972">
       <c r="A1972" t="n">
-        <v>79.02609777777772</v>
+        <v>79.02813194593905</v>
       </c>
       <c r="B1972" t="n">
         <v>32.53333333333333</v>
@@ -16247,7 +16247,7 @@
     </row>
     <row r="1973">
       <c r="A1973" t="n">
-        <v>78.95118222222216</v>
+        <v>78.9535549632247</v>
       </c>
       <c r="B1973" t="n">
         <v>32.55</v>
@@ -16255,7 +16255,7 @@
     </row>
     <row r="1974">
       <c r="A1974" t="n">
-        <v>78.8762666666666</v>
+        <v>78.87900391973193</v>
       </c>
       <c r="B1974" t="n">
         <v>32.56666666666667</v>
@@ -16263,7 +16263,7 @@
     </row>
     <row r="1975">
       <c r="A1975" t="n">
-        <v>78.80135111111103</v>
+        <v>78.80447880054007</v>
       </c>
       <c r="B1975" t="n">
         <v>32.58333333333334</v>
@@ -16271,7 +16271,7 @@
     </row>
     <row r="1976">
       <c r="A1976" t="n">
-        <v>78.72643555555547</v>
+        <v>78.7299795907398</v>
       </c>
       <c r="B1976" t="n">
         <v>32.6</v>
@@ -16279,7 +16279,7 @@
     </row>
     <row r="1977">
       <c r="A1977" t="n">
-        <v>78.65151999999992</v>
+        <v>78.65550627543314</v>
       </c>
       <c r="B1977" t="n">
         <v>32.61666666666667</v>
@@ -16287,7 +16287,7 @@
     </row>
     <row r="1978">
       <c r="A1978" t="n">
-        <v>78.57660444444436</v>
+        <v>78.58105883973342</v>
       </c>
       <c r="B1978" t="n">
         <v>32.63333333333333</v>
@@ -16295,7 +16295,7 @@
     </row>
     <row r="1979">
       <c r="A1979" t="n">
-        <v>74.25660444444435</v>
+        <v>74.26105883973341</v>
       </c>
       <c r="B1979" t="n">
         <v>32.65</v>
@@ -16303,7 +16303,7 @@
     </row>
     <row r="1980">
       <c r="A1980" t="n">
-        <v>69.93660444444436</v>
+        <v>69.94105883973342</v>
       </c>
       <c r="B1980" t="n">
         <v>32.66666666666666</v>
@@ -16311,7 +16311,7 @@
     </row>
     <row r="1981">
       <c r="A1981" t="n">
-        <v>65.61660444444436</v>
+        <v>65.62105883973342</v>
       </c>
       <c r="B1981" t="n">
         <v>32.68333333333333</v>
@@ -16319,7 +16319,7 @@
     </row>
     <row r="1982">
       <c r="A1982" t="n">
-        <v>61.29660444444436</v>
+        <v>61.30105883973342</v>
       </c>
       <c r="B1982" t="n">
         <v>32.7</v>
@@ -16327,7 +16327,7 @@
     </row>
     <row r="1983">
       <c r="A1983" t="n">
-        <v>56.97660444444436</v>
+        <v>56.98105883973343</v>
       </c>
       <c r="B1983" t="n">
         <v>32.71666666666667</v>
@@ -16335,7 +16335,7 @@
     </row>
     <row r="1984">
       <c r="A1984" t="n">
-        <v>52.65660444444436</v>
+        <v>52.66105883973343</v>
       </c>
       <c r="B1984" t="n">
         <v>32.73333333333333</v>
@@ -16343,7 +16343,7 @@
     </row>
     <row r="1985">
       <c r="A1985" t="n">
-        <v>48.33660444444437</v>
+        <v>48.34105883973344</v>
       </c>
       <c r="B1985" t="n">
         <v>32.75</v>
@@ -16351,7 +16351,7 @@
     </row>
     <row r="1986">
       <c r="A1986" t="n">
-        <v>44.01660444444438</v>
+        <v>44.02105883973343</v>
       </c>
       <c r="B1986" t="n">
         <v>32.76666666666667</v>
@@ -16359,7 +16359,7 @@
     </row>
     <row r="1987">
       <c r="A1987" t="n">
-        <v>39.69660444444438</v>
+        <v>39.70105883973343</v>
       </c>
       <c r="B1987" t="n">
         <v>32.78333333333333</v>
@@ -16367,7 +16367,7 @@
     </row>
     <row r="1988">
       <c r="A1988" t="n">
-        <v>35.37660444444438</v>
+        <v>35.38105883973344</v>
       </c>
       <c r="B1988" t="n">
         <v>32.8</v>
@@ -16375,7 +16375,7 @@
     </row>
     <row r="1989">
       <c r="A1989" t="n">
-        <v>31.05660444444438</v>
+        <v>31.06105883973344</v>
       </c>
       <c r="B1989" t="n">
         <v>32.81666666666667</v>
@@ -16383,7 +16383,7 @@
     </row>
     <row r="1990">
       <c r="A1990" t="n">
-        <v>26.73660444444438</v>
+        <v>26.74105883973344</v>
       </c>
       <c r="B1990" t="n">
         <v>32.83333333333334</v>
@@ -16391,7 +16391,7 @@
     </row>
     <row r="1991">
       <c r="A1991" t="n">
-        <v>22.41660444444438</v>
+        <v>22.42105883973344</v>
       </c>
       <c r="B1991" t="n">
         <v>32.85</v>
@@ -16399,7 +16399,7 @@
     </row>
     <row r="1992">
       <c r="A1992" t="n">
-        <v>18.09660444444438</v>
+        <v>18.10105883973344</v>
       </c>
       <c r="B1992" t="n">
         <v>32.86666666666667</v>
@@ -16407,7 +16407,7 @@
     </row>
     <row r="1993">
       <c r="A1993" t="n">
-        <v>13.77660444444438</v>
+        <v>13.78105883973344</v>
       </c>
       <c r="B1993" t="n">
         <v>32.88333333333333</v>
@@ -16415,7 +16415,7 @@
     </row>
     <row r="1994">
       <c r="A1994" t="n">
-        <v>9.456604444444377</v>
+        <v>9.46105883973344</v>
       </c>
       <c r="B1994" t="n">
         <v>32.9</v>
@@ -16423,7 +16423,7 @@
     </row>
     <row r="1995">
       <c r="A1995" t="n">
-        <v>5.136604444444376</v>
+        <v>5.141058839733439</v>
       </c>
       <c r="B1995" t="n">
         <v>32.91666666666666</v>
@@ -16431,7 +16431,7 @@
     </row>
     <row r="1996">
       <c r="A1996" t="n">
-        <v>0.8166044444443761</v>
+        <v>0.8210588397334396</v>
       </c>
       <c r="B1996" t="n">
         <v>32.93333333333333</v>
@@ -16927,7 +16927,7 @@
     </row>
     <row r="2058">
       <c r="A2058" t="n">
-        <v>79.85016888888887</v>
+        <v>79.85019502311617</v>
       </c>
       <c r="B2058" t="n">
         <v>33.95</v>
@@ -16935,7 +16935,7 @@
     </row>
     <row r="2059">
       <c r="A2059" t="n">
-        <v>79.77525333333332</v>
+        <v>79.77533172094607</v>
       </c>
       <c r="B2059" t="n">
         <v>33.96666666666667</v>
@@ -16943,7 +16943,7 @@
     </row>
     <row r="2060">
       <c r="A2060" t="n">
-        <v>79.70033777777776</v>
+        <v>79.70049452287653</v>
       </c>
       <c r="B2060" t="n">
         <v>33.98333333333333</v>
@@ -16951,7 +16951,7 @@
     </row>
     <row r="2061">
       <c r="A2061" t="n">
-        <v>79.6254222222222</v>
+        <v>79.6256834138614</v>
       </c>
       <c r="B2061" t="n">
         <v>34</v>
@@ -16959,7 +16959,7 @@
     </row>
     <row r="2062">
       <c r="A2062" t="n">
-        <v>79.55050666666664</v>
+        <v>79.55089837886598</v>
       </c>
       <c r="B2062" t="n">
         <v>34.01666666666667</v>
@@ -16967,7 +16967,7 @@
     </row>
     <row r="2063">
       <c r="A2063" t="n">
-        <v>79.47559111111107</v>
+        <v>79.47613940286706</v>
       </c>
       <c r="B2063" t="n">
         <v>34.03333333333333</v>
@@ -16975,7 +16975,7 @@
     </row>
     <row r="2064">
       <c r="A2064" t="n">
-        <v>79.40067555555552</v>
+        <v>79.40140647085286</v>
       </c>
       <c r="B2064" t="n">
         <v>34.05</v>
@@ -16983,7 +16983,7 @@
     </row>
     <row r="2065">
       <c r="A2065" t="n">
-        <v>79.32575999999996</v>
+        <v>79.32669956782298</v>
       </c>
       <c r="B2065" t="n">
         <v>34.06666666666667</v>
@@ -16991,7 +16991,7 @@
     </row>
     <row r="2066">
       <c r="A2066" t="n">
-        <v>79.2508444444444</v>
+        <v>79.25201867878852</v>
       </c>
       <c r="B2066" t="n">
         <v>34.08333333333334</v>
@@ -16999,7 +16999,7 @@
     </row>
     <row r="2067">
       <c r="A2067" t="n">
-        <v>79.17592888888883</v>
+        <v>79.17736378877188</v>
       </c>
       <c r="B2067" t="n">
         <v>34.1</v>
@@ -17007,7 +17007,7 @@
     </row>
     <row r="2068">
       <c r="A2068" t="n">
-        <v>79.10101333333327</v>
+        <v>79.10273488280698</v>
       </c>
       <c r="B2068" t="n">
         <v>34.11666666666667</v>
@@ -17015,7 +17015,7 @@
     </row>
     <row r="2069">
       <c r="A2069" t="n">
-        <v>79.02609777777772</v>
+        <v>79.02813194593905</v>
       </c>
       <c r="B2069" t="n">
         <v>34.13333333333333</v>
@@ -17063,7 +17063,7 @@
     </row>
     <row r="2075">
       <c r="A2075" t="n">
-        <v>64.92508444444445</v>
+        <v>64.93019840277778</v>
       </c>
       <c r="B2075" t="n">
         <v>34.23333333333333</v>
@@ -17071,7 +17071,7 @@
     </row>
     <row r="2076">
       <c r="A2076" t="n">
-        <v>64.85016888888887</v>
+        <v>64.86042004496349</v>
       </c>
       <c r="B2076" t="n">
         <v>34.25</v>
@@ -17079,7 +17079,7 @@
     </row>
     <row r="2077">
       <c r="A2077" t="n">
-        <v>64.77525333333332</v>
+        <v>64.79066491365249</v>
       </c>
       <c r="B2077" t="n">
         <v>34.26666666666667</v>
@@ -17087,7 +17087,7 @@
     </row>
     <row r="2078">
       <c r="A2078" t="n">
-        <v>64.70033777777776</v>
+        <v>64.7209329959496</v>
       </c>
       <c r="B2078" t="n">
         <v>34.28333333333333</v>
@@ -17095,7 +17095,7 @@
     </row>
     <row r="2079">
       <c r="A2079" t="n">
-        <v>64.62542222222221</v>
+        <v>64.65122427896904</v>
       </c>
       <c r="B2079" t="n">
         <v>34.3</v>
@@ -17103,7 +17103,7 @@
     </row>
     <row r="2080">
       <c r="A2080" t="n">
-        <v>64.55050666666664</v>
+        <v>64.58153874983454</v>
       </c>
       <c r="B2080" t="n">
         <v>34.31666666666667</v>
@@ -17111,7 +17111,7 @@
     </row>
     <row r="2081">
       <c r="A2081" t="n">
-        <v>64.47559111111109</v>
+        <v>64.5118763956792</v>
       </c>
       <c r="B2081" t="n">
         <v>34.33333333333334</v>
@@ -17119,7 +17119,7 @@
     </row>
     <row r="2082">
       <c r="A2082" t="n">
-        <v>64.40067555555552</v>
+        <v>64.44223720364559</v>
       </c>
       <c r="B2082" t="n">
         <v>34.35</v>
@@ -17127,7 +17127,7 @@
     </row>
     <row r="2083">
       <c r="A2083" t="n">
-        <v>64.32575999999997</v>
+        <v>64.37262116088567</v>
       </c>
       <c r="B2083" t="n">
         <v>34.36666666666667</v>
@@ -17135,7 +17135,7 @@
     </row>
     <row r="2084">
       <c r="A2084" t="n">
-        <v>64.2508444444444</v>
+        <v>64.30302825456079</v>
       </c>
       <c r="B2084" t="n">
         <v>34.38333333333333</v>
@@ -17143,7 +17143,7 @@
     </row>
     <row r="2085">
       <c r="A2085" t="n">
-        <v>64.17592888888885</v>
+        <v>64.23345847184171</v>
       </c>
       <c r="B2085" t="n">
         <v>34.4</v>
@@ -17151,7 +17151,7 @@
     </row>
     <row r="2086">
       <c r="A2086" t="n">
-        <v>64.10101333333327</v>
+        <v>64.16391179990858</v>
       </c>
       <c r="B2086" t="n">
         <v>34.41666666666666</v>
@@ -17159,7 +17159,7 @@
     </row>
     <row r="2087">
       <c r="A2087" t="n">
-        <v>64.02609777777772</v>
+        <v>64.09438822595091</v>
       </c>
       <c r="B2087" t="n">
         <v>34.43333333333333</v>
@@ -17255,7 +17255,7 @@
     </row>
     <row r="2099">
       <c r="A2099" t="n">
-        <v>74.92508444444444</v>
+        <v>74.92681562499999</v>
       </c>
       <c r="B2099" t="n">
         <v>34.63333333333333</v>
@@ -17263,7 +17263,7 @@
     </row>
     <row r="2100">
       <c r="A2100" t="n">
-        <v>74.85016888888887</v>
+        <v>74.85365639208986</v>
       </c>
       <c r="B2100" t="n">
         <v>34.65</v>
@@ -17271,7 +17271,7 @@
     </row>
     <row r="2101">
       <c r="A2101" t="n">
-        <v>74.77525333333332</v>
+        <v>74.78052228695186</v>
       </c>
       <c r="B2101" t="n">
         <v>34.66666666666666</v>
@@ -17279,7 +17279,7 @@
     </row>
     <row r="2102">
       <c r="A2102" t="n">
-        <v>74.70033777777776</v>
+        <v>74.707413295279</v>
       </c>
       <c r="B2102" t="n">
         <v>34.68333333333333</v>
@@ -17287,7 +17287,7 @@
     </row>
     <row r="2103">
       <c r="A2103" t="n">
-        <v>74.6254222222222</v>
+        <v>74.63432940277502</v>
       </c>
       <c r="B2103" t="n">
         <v>34.7</v>
@@ -17295,7 +17295,7 @@
     </row>
     <row r="2104">
       <c r="A2104" t="n">
-        <v>74.55050666666664</v>
+        <v>74.5612705951545</v>
       </c>
       <c r="B2104" t="n">
         <v>34.71666666666667</v>
@@ -17303,7 +17303,7 @@
     </row>
     <row r="2105">
       <c r="A2105" t="n">
-        <v>74.47559111111107</v>
+        <v>74.48823685814266</v>
       </c>
       <c r="B2105" t="n">
         <v>34.73333333333333</v>
@@ -17311,7 +17311,7 @@
     </row>
     <row r="2106">
       <c r="A2106" t="n">
-        <v>74.40067555555552</v>
+        <v>74.41522817747551</v>
       </c>
       <c r="B2106" t="n">
         <v>34.75</v>
@@ -17319,7 +17319,7 @@
     </row>
     <row r="2107">
       <c r="A2107" t="n">
-        <v>74.32575999999996</v>
+        <v>74.34224453889978</v>
       </c>
       <c r="B2107" t="n">
         <v>34.76666666666667</v>
@@ -17327,7 +17327,7 @@
     </row>
     <row r="2108">
       <c r="A2108" t="n">
-        <v>74.2508444444444</v>
+        <v>74.26928592817288</v>
       </c>
       <c r="B2108" t="n">
         <v>34.78333333333333</v>
@@ -17335,7 +17335,7 @@
     </row>
     <row r="2109">
       <c r="A2109" t="n">
-        <v>74.17592888888883</v>
+        <v>74.19635233106294</v>
       </c>
       <c r="B2109" t="n">
         <v>34.8</v>
@@ -17343,7 +17343,7 @@
     </row>
     <row r="2110">
       <c r="A2110" t="n">
-        <v>74.10101333333327</v>
+        <v>74.12344373334878</v>
       </c>
       <c r="B2110" t="n">
         <v>34.81666666666667</v>
@@ -17983,7 +17983,7 @@
     </row>
     <row r="2190">
       <c r="A2190" t="n">
-        <v>79.85016888888887</v>
+        <v>79.85019502311617</v>
       </c>
       <c r="B2190" t="n">
         <v>36.13333333333333</v>
@@ -17991,7 +17991,7 @@
     </row>
     <row r="2191">
       <c r="A2191" t="n">
-        <v>79.77525333333332</v>
+        <v>79.77533172094607</v>
       </c>
       <c r="B2191" t="n">
         <v>36.15</v>
@@ -17999,7 +17999,7 @@
     </row>
     <row r="2192">
       <c r="A2192" t="n">
-        <v>79.70033777777776</v>
+        <v>79.70049452287653</v>
       </c>
       <c r="B2192" t="n">
         <v>36.16666666666666</v>
@@ -18007,7 +18007,7 @@
     </row>
     <row r="2193">
       <c r="A2193" t="n">
-        <v>79.6254222222222</v>
+        <v>79.6256834138614</v>
       </c>
       <c r="B2193" t="n">
         <v>36.18333333333333</v>
@@ -18015,7 +18015,7 @@
     </row>
     <row r="2194">
       <c r="A2194" t="n">
-        <v>79.55050666666664</v>
+        <v>79.55089837886598</v>
       </c>
       <c r="B2194" t="n">
         <v>36.2</v>
@@ -18023,7 +18023,7 @@
     </row>
     <row r="2195">
       <c r="A2195" t="n">
-        <v>79.47559111111107</v>
+        <v>79.47613940286706</v>
       </c>
       <c r="B2195" t="n">
         <v>36.21666666666667</v>
@@ -18031,7 +18031,7 @@
     </row>
     <row r="2196">
       <c r="A2196" t="n">
-        <v>79.40067555555552</v>
+        <v>79.40140647085286</v>
       </c>
       <c r="B2196" t="n">
         <v>36.23333333333333</v>
@@ -18039,7 +18039,7 @@
     </row>
     <row r="2197">
       <c r="A2197" t="n">
-        <v>79.32575999999996</v>
+        <v>79.32669956782298</v>
       </c>
       <c r="B2197" t="n">
         <v>36.25</v>
@@ -18047,7 +18047,7 @@
     </row>
     <row r="2198">
       <c r="A2198" t="n">
-        <v>79.2508444444444</v>
+        <v>79.25201867878852</v>
       </c>
       <c r="B2198" t="n">
         <v>36.26666666666667</v>
@@ -18055,7 +18055,7 @@
     </row>
     <row r="2199">
       <c r="A2199" t="n">
-        <v>79.17592888888883</v>
+        <v>79.17736378877188</v>
       </c>
       <c r="B2199" t="n">
         <v>36.28333333333333</v>
@@ -18063,7 +18063,7 @@
     </row>
     <row r="2200">
       <c r="A2200" t="n">
-        <v>79.10101333333327</v>
+        <v>79.10273488280698</v>
       </c>
       <c r="B2200" t="n">
         <v>36.3</v>
@@ -18071,7 +18071,7 @@
     </row>
     <row r="2201">
       <c r="A2201" t="n">
-        <v>79.02609777777772</v>
+        <v>79.02813194593905</v>
       </c>
       <c r="B2201" t="n">
         <v>36.31666666666667</v>
@@ -18079,7 +18079,7 @@
     </row>
     <row r="2202">
       <c r="A2202" t="n">
-        <v>78.95118222222216</v>
+        <v>78.9535549632247</v>
       </c>
       <c r="B2202" t="n">
         <v>36.33333333333334</v>
@@ -18263,7 +18263,7 @@
     </row>
     <row r="2225">
       <c r="A2225" t="n">
-        <v>79.85016888888887</v>
+        <v>79.85019502311617</v>
       </c>
       <c r="B2225" t="n">
         <v>36.71666666666667</v>
@@ -18271,7 +18271,7 @@
     </row>
     <row r="2226">
       <c r="A2226" t="n">
-        <v>79.77525333333332</v>
+        <v>79.77533172094607</v>
       </c>
       <c r="B2226" t="n">
         <v>36.73333333333333</v>
@@ -18279,7 +18279,7 @@
     </row>
     <row r="2227">
       <c r="A2227" t="n">
-        <v>79.70033777777776</v>
+        <v>79.70049452287653</v>
       </c>
       <c r="B2227" t="n">
         <v>36.75</v>
@@ -18287,7 +18287,7 @@
     </row>
     <row r="2228">
       <c r="A2228" t="n">
-        <v>79.6254222222222</v>
+        <v>79.6256834138614</v>
       </c>
       <c r="B2228" t="n">
         <v>36.76666666666667</v>
@@ -18295,7 +18295,7 @@
     </row>
     <row r="2229">
       <c r="A2229" t="n">
-        <v>79.55050666666664</v>
+        <v>79.55089837886598</v>
       </c>
       <c r="B2229" t="n">
         <v>36.78333333333333</v>
@@ -18303,7 +18303,7 @@
     </row>
     <row r="2230">
       <c r="A2230" t="n">
-        <v>79.47559111111107</v>
+        <v>79.47613940286706</v>
       </c>
       <c r="B2230" t="n">
         <v>36.8</v>
@@ -18311,7 +18311,7 @@
     </row>
     <row r="2231">
       <c r="A2231" t="n">
-        <v>79.40067555555552</v>
+        <v>79.40140647085286</v>
       </c>
       <c r="B2231" t="n">
         <v>36.81666666666667</v>
@@ -18431,7 +18431,7 @@
     </row>
     <row r="2246">
       <c r="A2246" t="n">
-        <v>79.85016888888887</v>
+        <v>79.85019502311617</v>
       </c>
       <c r="B2246" t="n">
         <v>37.06666666666667</v>
@@ -18439,7 +18439,7 @@
     </row>
     <row r="2247">
       <c r="A2247" t="n">
-        <v>79.77525333333332</v>
+        <v>79.77533172094607</v>
       </c>
       <c r="B2247" t="n">
         <v>37.08333333333334</v>
@@ -18447,7 +18447,7 @@
     </row>
     <row r="2248">
       <c r="A2248" t="n">
-        <v>79.70033777777776</v>
+        <v>79.70049452287653</v>
       </c>
       <c r="B2248" t="n">
         <v>37.1</v>
@@ -18455,7 +18455,7 @@
     </row>
     <row r="2249">
       <c r="A2249" t="n">
-        <v>79.6254222222222</v>
+        <v>79.6256834138614</v>
       </c>
       <c r="B2249" t="n">
         <v>37.11666666666667</v>
@@ -18463,7 +18463,7 @@
     </row>
     <row r="2250">
       <c r="A2250" t="n">
-        <v>79.55050666666664</v>
+        <v>79.55089837886598</v>
       </c>
       <c r="B2250" t="n">
         <v>37.13333333333333</v>
@@ -18471,7 +18471,7 @@
     </row>
     <row r="2251">
       <c r="A2251" t="n">
-        <v>79.47559111111107</v>
+        <v>79.47613940286706</v>
       </c>
       <c r="B2251" t="n">
         <v>37.15</v>
@@ -18479,7 +18479,7 @@
     </row>
     <row r="2252">
       <c r="A2252" t="n">
-        <v>79.40067555555552</v>
+        <v>79.40140647085286</v>
       </c>
       <c r="B2252" t="n">
         <v>37.16666666666666</v>
@@ -18487,7 +18487,7 @@
     </row>
     <row r="2253">
       <c r="A2253" t="n">
-        <v>79.32575999999996</v>
+        <v>79.32669956782298</v>
       </c>
       <c r="B2253" t="n">
         <v>37.18333333333333</v>
@@ -18495,7 +18495,7 @@
     </row>
     <row r="2254">
       <c r="A2254" t="n">
-        <v>79.2508444444444</v>
+        <v>79.25201867878852</v>
       </c>
       <c r="B2254" t="n">
         <v>37.2</v>
@@ -18503,7 +18503,7 @@
     </row>
     <row r="2255">
       <c r="A2255" t="n">
-        <v>79.17592888888883</v>
+        <v>79.17736378877188</v>
       </c>
       <c r="B2255" t="n">
         <v>37.21666666666667</v>
@@ -18543,7 +18543,7 @@
     </row>
     <row r="2260">
       <c r="A2260" t="n">
-        <v>79.85016888888887</v>
+        <v>79.85019502311617</v>
       </c>
       <c r="B2260" t="n">
         <v>37.3</v>
@@ -18551,7 +18551,7 @@
     </row>
     <row r="2261">
       <c r="A2261" t="n">
-        <v>79.77525333333332</v>
+        <v>79.77533172094607</v>
       </c>
       <c r="B2261" t="n">
         <v>37.31666666666667</v>
@@ -18559,7 +18559,7 @@
     </row>
     <row r="2262">
       <c r="A2262" t="n">
-        <v>79.70033777777776</v>
+        <v>79.70049452287653</v>
       </c>
       <c r="B2262" t="n">
         <v>37.33333333333334</v>
@@ -18567,7 +18567,7 @@
     </row>
     <row r="2263">
       <c r="A2263" t="n">
-        <v>79.6254222222222</v>
+        <v>79.6256834138614</v>
       </c>
       <c r="B2263" t="n">
         <v>37.35</v>
@@ -18575,7 +18575,7 @@
     </row>
     <row r="2264">
       <c r="A2264" t="n">
-        <v>79.55050666666664</v>
+        <v>79.55089837886598</v>
       </c>
       <c r="B2264" t="n">
         <v>37.36666666666667</v>
@@ -18583,7 +18583,7 @@
     </row>
     <row r="2265">
       <c r="A2265" t="n">
-        <v>79.47559111111107</v>
+        <v>79.47613940286706</v>
       </c>
       <c r="B2265" t="n">
         <v>37.38333333333333</v>
@@ -18591,7 +18591,7 @@
     </row>
     <row r="2266">
       <c r="A2266" t="n">
-        <v>79.40067555555552</v>
+        <v>79.40140647085286</v>
       </c>
       <c r="B2266" t="n">
         <v>37.4</v>
@@ -18639,7 +18639,7 @@
     </row>
     <row r="2272">
       <c r="A2272" t="n">
-        <v>79.85016888888887</v>
+        <v>79.85019502311617</v>
       </c>
       <c r="B2272" t="n">
         <v>37.5</v>
@@ -18647,7 +18647,7 @@
     </row>
     <row r="2273">
       <c r="A2273" t="n">
-        <v>79.77525333333332</v>
+        <v>79.77533172094607</v>
       </c>
       <c r="B2273" t="n">
         <v>37.51666666666667</v>
@@ -18655,7 +18655,7 @@
     </row>
     <row r="2274">
       <c r="A2274" t="n">
-        <v>79.70033777777776</v>
+        <v>79.70049452287653</v>
       </c>
       <c r="B2274" t="n">
         <v>37.53333333333333</v>
@@ -18663,7 +18663,7 @@
     </row>
     <row r="2275">
       <c r="A2275" t="n">
-        <v>79.6254222222222</v>
+        <v>79.6256834138614</v>
       </c>
       <c r="B2275" t="n">
         <v>37.55</v>
@@ -18767,7 +18767,7 @@
     </row>
     <row r="2288">
       <c r="A2288" t="n">
-        <v>74.92508444444444</v>
+        <v>74.92681562499999</v>
       </c>
       <c r="B2288" t="n">
         <v>37.76666666666667</v>
@@ -18775,7 +18775,7 @@
     </row>
     <row r="2289">
       <c r="A2289" t="n">
-        <v>74.85016888888887</v>
+        <v>74.85365639208986</v>
       </c>
       <c r="B2289" t="n">
         <v>37.78333333333333</v>
@@ -18783,7 +18783,7 @@
     </row>
     <row r="2290">
       <c r="A2290" t="n">
-        <v>74.77525333333332</v>
+        <v>74.78052228695186</v>
       </c>
       <c r="B2290" t="n">
         <v>37.8</v>
@@ -18791,7 +18791,7 @@
     </row>
     <row r="2291">
       <c r="A2291" t="n">
-        <v>74.70033777777776</v>
+        <v>74.707413295279</v>
       </c>
       <c r="B2291" t="n">
         <v>37.81666666666667</v>
@@ -18839,7 +18839,7 @@
     </row>
     <row r="2297">
       <c r="A2297" t="n">
-        <v>79.85016888888887</v>
+        <v>79.85019502311617</v>
       </c>
       <c r="B2297" t="n">
         <v>37.91666666666666</v>
@@ -18847,7 +18847,7 @@
     </row>
     <row r="2298">
       <c r="A2298" t="n">
-        <v>79.77525333333332</v>
+        <v>79.77533172094607</v>
       </c>
       <c r="B2298" t="n">
         <v>37.93333333333333</v>
@@ -18855,7 +18855,7 @@
     </row>
     <row r="2299">
       <c r="A2299" t="n">
-        <v>79.70033777777776</v>
+        <v>79.70049452287653</v>
       </c>
       <c r="B2299" t="n">
         <v>37.95</v>
@@ -18863,7 +18863,7 @@
     </row>
     <row r="2300">
       <c r="A2300" t="n">
-        <v>79.6254222222222</v>
+        <v>79.6256834138614</v>
       </c>
       <c r="B2300" t="n">
         <v>37.96666666666667</v>
@@ -18871,7 +18871,7 @@
     </row>
     <row r="2301">
       <c r="A2301" t="n">
-        <v>79.55050666666664</v>
+        <v>79.55089837886598</v>
       </c>
       <c r="B2301" t="n">
         <v>37.98333333333333</v>
@@ -18879,7 +18879,7 @@
     </row>
     <row r="2302">
       <c r="A2302" t="n">
-        <v>75.23050666666663</v>
+        <v>75.23089837886599</v>
       </c>
       <c r="B2302" t="n">
         <v>38</v>
@@ -18887,7 +18887,7 @@
     </row>
     <row r="2303">
       <c r="A2303" t="n">
-        <v>70.91050666666663</v>
+        <v>70.91089837886599</v>
       </c>
       <c r="B2303" t="n">
         <v>38.01666666666667</v>
@@ -18895,7 +18895,7 @@
     </row>
     <row r="2304">
       <c r="A2304" t="n">
-        <v>66.59050666666664</v>
+        <v>66.590898378866</v>
       </c>
       <c r="B2304" t="n">
         <v>38.03333333333333</v>
@@ -18903,7 +18903,7 @@
     </row>
     <row r="2305">
       <c r="A2305" t="n">
-        <v>62.27050666666664</v>
+        <v>62.270898378866</v>
       </c>
       <c r="B2305" t="n">
         <v>38.05</v>
@@ -18911,7 +18911,7 @@
     </row>
     <row r="2306">
       <c r="A2306" t="n">
-        <v>57.95050666666665</v>
+        <v>57.95089837886601</v>
       </c>
       <c r="B2306" t="n">
         <v>38.06666666666667</v>
@@ -18919,7 +18919,7 @@
     </row>
     <row r="2307">
       <c r="A2307" t="n">
-        <v>53.63050666666665</v>
+        <v>53.63089837886601</v>
       </c>
       <c r="B2307" t="n">
         <v>38.08333333333334</v>
@@ -18927,7 +18927,7 @@
     </row>
     <row r="2308">
       <c r="A2308" t="n">
-        <v>49.31050666666665</v>
+        <v>49.31089837886601</v>
       </c>
       <c r="B2308" t="n">
         <v>38.1</v>
@@ -18935,7 +18935,7 @@
     </row>
     <row r="2309">
       <c r="A2309" t="n">
-        <v>44.99050666666666</v>
+        <v>44.99089837886601</v>
       </c>
       <c r="B2309" t="n">
         <v>38.11666666666667</v>
@@ -18943,7 +18943,7 @@
     </row>
     <row r="2310">
       <c r="A2310" t="n">
-        <v>40.67050666666666</v>
+        <v>40.67089837886601</v>
       </c>
       <c r="B2310" t="n">
         <v>38.13333333333333</v>
@@ -18951,7 +18951,7 @@
     </row>
     <row r="2311">
       <c r="A2311" t="n">
-        <v>36.35050666666666</v>
+        <v>36.35089837886601</v>
       </c>
       <c r="B2311" t="n">
         <v>38.15</v>
@@ -18959,7 +18959,7 @@
     </row>
     <row r="2312">
       <c r="A2312" t="n">
-        <v>32.03050666666666</v>
+        <v>32.03089837886601</v>
       </c>
       <c r="B2312" t="n">
         <v>38.16666666666666</v>
@@ -18967,7 +18967,7 @@
     </row>
     <row r="2313">
       <c r="A2313" t="n">
-        <v>27.71050666666666</v>
+        <v>27.71089837886602</v>
       </c>
       <c r="B2313" t="n">
         <v>38.18333333333333</v>
@@ -18975,7 +18975,7 @@
     </row>
     <row r="2314">
       <c r="A2314" t="n">
-        <v>23.39050666666666</v>
+        <v>23.39089837886602</v>
       </c>
       <c r="B2314" t="n">
         <v>38.2</v>
@@ -18983,7 +18983,7 @@
     </row>
     <row r="2315">
       <c r="A2315" t="n">
-        <v>19.07050666666666</v>
+        <v>19.07089837886602</v>
       </c>
       <c r="B2315" t="n">
         <v>38.21666666666667</v>
@@ -18991,7 +18991,7 @@
     </row>
     <row r="2316">
       <c r="A2316" t="n">
-        <v>14.75050666666666</v>
+        <v>14.75089837886602</v>
       </c>
       <c r="B2316" t="n">
         <v>38.23333333333333</v>
@@ -18999,7 +18999,7 @@
     </row>
     <row r="2317">
       <c r="A2317" t="n">
-        <v>10.43050666666666</v>
+        <v>10.43089837886602</v>
       </c>
       <c r="B2317" t="n">
         <v>38.25</v>
@@ -19007,7 +19007,7 @@
     </row>
     <row r="2318">
       <c r="A2318" t="n">
-        <v>6.110506666666661</v>
+        <v>6.110898378866016</v>
       </c>
       <c r="B2318" t="n">
         <v>38.26666666666667</v>
@@ -19015,7 +19015,7 @@
     </row>
     <row r="2319">
       <c r="A2319" t="n">
-        <v>1.790506666666661</v>
+        <v>1.790898378866016</v>
       </c>
       <c r="B2319" t="n">
         <v>38.28333333333333</v>
@@ -19511,7 +19511,7 @@
     </row>
     <row r="2381">
       <c r="A2381" t="n">
-        <v>79.85016888888887</v>
+        <v>79.85019502311617</v>
       </c>
       <c r="B2381" t="n">
         <v>39.3</v>
@@ -19519,7 +19519,7 @@
     </row>
     <row r="2382">
       <c r="A2382" t="n">
-        <v>79.77525333333332</v>
+        <v>79.77533172094607</v>
       </c>
       <c r="B2382" t="n">
         <v>39.31666666666667</v>
@@ -19527,7 +19527,7 @@
     </row>
     <row r="2383">
       <c r="A2383" t="n">
-        <v>79.70033777777776</v>
+        <v>79.70049452287653</v>
       </c>
       <c r="B2383" t="n">
         <v>39.33333333333334</v>
@@ -19535,7 +19535,7 @@
     </row>
     <row r="2384">
       <c r="A2384" t="n">
-        <v>79.6254222222222</v>
+        <v>79.6256834138614</v>
       </c>
       <c r="B2384" t="n">
         <v>39.35</v>
@@ -19543,7 +19543,7 @@
     </row>
     <row r="2385">
       <c r="A2385" t="n">
-        <v>79.55050666666664</v>
+        <v>79.55089837886598</v>
       </c>
       <c r="B2385" t="n">
         <v>39.36666666666667</v>
@@ -19551,7 +19551,7 @@
     </row>
     <row r="2386">
       <c r="A2386" t="n">
-        <v>79.47559111111107</v>
+        <v>79.47613940286706</v>
       </c>
       <c r="B2386" t="n">
         <v>39.38333333333333</v>
@@ -20311,7 +20311,7 @@
     </row>
     <row r="2481">
       <c r="A2481" t="n">
-        <v>74.92508444444444</v>
+        <v>74.92681562499999</v>
       </c>
       <c r="B2481" t="n">
         <v>40.95</v>
@@ -20319,7 +20319,7 @@
     </row>
     <row r="2482">
       <c r="A2482" t="n">
-        <v>74.85016888888887</v>
+        <v>74.85365639208986</v>
       </c>
       <c r="B2482" t="n">
         <v>40.96666666666667</v>
@@ -20327,7 +20327,7 @@
     </row>
     <row r="2483">
       <c r="A2483" t="n">
-        <v>74.77525333333332</v>
+        <v>74.78052228695186</v>
       </c>
       <c r="B2483" t="n">
         <v>40.98333333333333</v>
@@ -20335,7 +20335,7 @@
     </row>
     <row r="2484">
       <c r="A2484" t="n">
-        <v>74.70033777777776</v>
+        <v>74.707413295279</v>
       </c>
       <c r="B2484" t="n">
         <v>41</v>
@@ -20343,7 +20343,7 @@
     </row>
     <row r="2485">
       <c r="A2485" t="n">
-        <v>74.6254222222222</v>
+        <v>74.63432940277502</v>
       </c>
       <c r="B2485" t="n">
         <v>41.01666666666667</v>
@@ -20351,7 +20351,7 @@
     </row>
     <row r="2486">
       <c r="A2486" t="n">
-        <v>74.55050666666664</v>
+        <v>74.5612705951545</v>
       </c>
       <c r="B2486" t="n">
         <v>41.03333333333333</v>
@@ -20359,7 +20359,7 @@
     </row>
     <row r="2487">
       <c r="A2487" t="n">
-        <v>74.47559111111107</v>
+        <v>74.48823685814266</v>
       </c>
       <c r="B2487" t="n">
         <v>41.05</v>
@@ -20407,7 +20407,7 @@
     </row>
     <row r="2493">
       <c r="A2493" t="n">
-        <v>79.85016888888887</v>
+        <v>79.85019502311617</v>
       </c>
       <c r="B2493" t="n">
         <v>41.15</v>
@@ -20415,7 +20415,7 @@
     </row>
     <row r="2494">
       <c r="A2494" t="n">
-        <v>79.77525333333332</v>
+        <v>79.77533172094607</v>
       </c>
       <c r="B2494" t="n">
         <v>41.16666666666666</v>
@@ -20759,7 +20759,7 @@
     </row>
     <row r="2537">
       <c r="A2537" t="n">
-        <v>79.85016888888887</v>
+        <v>79.85019502311617</v>
       </c>
       <c r="B2537" t="n">
         <v>41.88333333333333</v>
@@ -20767,7 +20767,7 @@
     </row>
     <row r="2538">
       <c r="A2538" t="n">
-        <v>79.77525333333332</v>
+        <v>79.77533172094607</v>
       </c>
       <c r="B2538" t="n">
         <v>41.9</v>
@@ -20775,7 +20775,7 @@
     </row>
     <row r="2539">
       <c r="A2539" t="n">
-        <v>79.70033777777776</v>
+        <v>79.70049452287653</v>
       </c>
       <c r="B2539" t="n">
         <v>41.91666666666666</v>
@@ -20783,7 +20783,7 @@
     </row>
     <row r="2540">
       <c r="A2540" t="n">
-        <v>79.6254222222222</v>
+        <v>79.6256834138614</v>
       </c>
       <c r="B2540" t="n">
         <v>41.93333333333333</v>
@@ -20791,7 +20791,7 @@
     </row>
     <row r="2541">
       <c r="A2541" t="n">
-        <v>79.55050666666664</v>
+        <v>79.55089837886598</v>
       </c>
       <c r="B2541" t="n">
         <v>41.95</v>
@@ -20799,7 +20799,7 @@
     </row>
     <row r="2542">
       <c r="A2542" t="n">
-        <v>79.47559111111107</v>
+        <v>79.47613940286706</v>
       </c>
       <c r="B2542" t="n">
         <v>41.96666666666667</v>
@@ -20807,7 +20807,7 @@
     </row>
     <row r="2543">
       <c r="A2543" t="n">
-        <v>79.40067555555552</v>
+        <v>79.40140647085286</v>
       </c>
       <c r="B2543" t="n">
         <v>41.98333333333333</v>
@@ -20815,7 +20815,7 @@
     </row>
     <row r="2544">
       <c r="A2544" t="n">
-        <v>79.32575999999996</v>
+        <v>79.32669956782298</v>
       </c>
       <c r="B2544" t="n">
         <v>42</v>
@@ -20823,7 +20823,7 @@
     </row>
     <row r="2545">
       <c r="A2545" t="n">
-        <v>79.2508444444444</v>
+        <v>79.25201867878852</v>
       </c>
       <c r="B2545" t="n">
         <v>42.01666666666667</v>
@@ -20831,7 +20831,7 @@
     </row>
     <row r="2546">
       <c r="A2546" t="n">
-        <v>79.17592888888883</v>
+        <v>79.17736378877188</v>
       </c>
       <c r="B2546" t="n">
         <v>42.03333333333333</v>
@@ -20839,7 +20839,7 @@
     </row>
     <row r="2547">
       <c r="A2547" t="n">
-        <v>79.10101333333327</v>
+        <v>79.10273488280698</v>
       </c>
       <c r="B2547" t="n">
         <v>42.05</v>
@@ -20847,7 +20847,7 @@
     </row>
     <row r="2548">
       <c r="A2548" t="n">
-        <v>79.02609777777772</v>
+        <v>79.02813194593905</v>
       </c>
       <c r="B2548" t="n">
         <v>42.06666666666667</v>
@@ -20855,7 +20855,7 @@
     </row>
     <row r="2549">
       <c r="A2549" t="n">
-        <v>78.95118222222216</v>
+        <v>78.9535549632247</v>
       </c>
       <c r="B2549" t="n">
         <v>42.08333333333334</v>
@@ -20863,7 +20863,7 @@
     </row>
     <row r="2550">
       <c r="A2550" t="n">
-        <v>78.8762666666666</v>
+        <v>78.87900391973193</v>
       </c>
       <c r="B2550" t="n">
         <v>42.1</v>
@@ -20871,7 +20871,7 @@
     </row>
     <row r="2551">
       <c r="A2551" t="n">
-        <v>78.80135111111103</v>
+        <v>78.80447880054007</v>
       </c>
       <c r="B2551" t="n">
         <v>42.11666666666667</v>
@@ -20879,7 +20879,7 @@
     </row>
     <row r="2552">
       <c r="A2552" t="n">
-        <v>78.72643555555547</v>
+        <v>78.7299795907398</v>
       </c>
       <c r="B2552" t="n">
         <v>42.13333333333333</v>
@@ -20887,7 +20887,7 @@
     </row>
     <row r="2553">
       <c r="A2553" t="n">
-        <v>78.65151999999992</v>
+        <v>78.65550627543314</v>
       </c>
       <c r="B2553" t="n">
         <v>42.15</v>
@@ -21319,7 +21319,7 @@
     </row>
     <row r="2607">
       <c r="A2607" t="n">
-        <v>64.92508444444445</v>
+        <v>64.93019840277778</v>
       </c>
       <c r="B2607" t="n">
         <v>43.05</v>
@@ -21327,7 +21327,7 @@
     </row>
     <row r="2608">
       <c r="A2608" t="n">
-        <v>64.85016888888887</v>
+        <v>64.86042004496349</v>
       </c>
       <c r="B2608" t="n">
         <v>43.06666666666667</v>
@@ -21335,7 +21335,7 @@
     </row>
     <row r="2609">
       <c r="A2609" t="n">
-        <v>64.77525333333332</v>
+        <v>64.79066491365249</v>
       </c>
       <c r="B2609" t="n">
         <v>43.08333333333334</v>
@@ -21343,7 +21343,7 @@
     </row>
     <row r="2610">
       <c r="A2610" t="n">
-        <v>64.70033777777776</v>
+        <v>64.7209329959496</v>
       </c>
       <c r="B2610" t="n">
         <v>43.1</v>
@@ -21351,7 +21351,7 @@
     </row>
     <row r="2611">
       <c r="A2611" t="n">
-        <v>64.62542222222221</v>
+        <v>64.65122427896904</v>
       </c>
       <c r="B2611" t="n">
         <v>43.11666666666667</v>
@@ -21359,7 +21359,7 @@
     </row>
     <row r="2612">
       <c r="A2612" t="n">
-        <v>64.55050666666664</v>
+        <v>64.58153874983454</v>
       </c>
       <c r="B2612" t="n">
         <v>43.13333333333333</v>
@@ -21367,7 +21367,7 @@
     </row>
     <row r="2613">
       <c r="A2613" t="n">
-        <v>64.47559111111109</v>
+        <v>64.5118763956792</v>
       </c>
       <c r="B2613" t="n">
         <v>43.15</v>
@@ -21375,7 +21375,7 @@
     </row>
     <row r="2614">
       <c r="A2614" t="n">
-        <v>64.40067555555552</v>
+        <v>64.44223720364559</v>
       </c>
       <c r="B2614" t="n">
         <v>43.16666666666666</v>
@@ -21383,7 +21383,7 @@
     </row>
     <row r="2615">
       <c r="A2615" t="n">
-        <v>64.32575999999997</v>
+        <v>64.37262116088567</v>
       </c>
       <c r="B2615" t="n">
         <v>43.18333333333333</v>
@@ -21391,7 +21391,7 @@
     </row>
     <row r="2616">
       <c r="A2616" t="n">
-        <v>64.2508444444444</v>
+        <v>64.30302825456079</v>
       </c>
       <c r="B2616" t="n">
         <v>43.2</v>
@@ -21399,7 +21399,7 @@
     </row>
     <row r="2617">
       <c r="A2617" t="n">
-        <v>64.17592888888885</v>
+        <v>64.23345847184171</v>
       </c>
       <c r="B2617" t="n">
         <v>43.21666666666667</v>
@@ -21407,7 +21407,7 @@
     </row>
     <row r="2618">
       <c r="A2618" t="n">
-        <v>64.10101333333327</v>
+        <v>64.16391179990858</v>
       </c>
       <c r="B2618" t="n">
         <v>43.23333333333333</v>
@@ -21415,7 +21415,7 @@
     </row>
     <row r="2619">
       <c r="A2619" t="n">
-        <v>64.02609777777772</v>
+        <v>64.09438822595091</v>
       </c>
       <c r="B2619" t="n">
         <v>43.25</v>
@@ -21423,7 +21423,7 @@
     </row>
     <row r="2620">
       <c r="A2620" t="n">
-        <v>63.95118222222216</v>
+        <v>64.02488773716762</v>
       </c>
       <c r="B2620" t="n">
         <v>43.26666666666667</v>
@@ -21431,7 +21431,7 @@
     </row>
     <row r="2621">
       <c r="A2621" t="n">
-        <v>67.55118222222215</v>
+        <v>63.95541032076694</v>
       </c>
       <c r="B2621" t="n">
         <v>43.28333333333333</v>
@@ -21439,7 +21439,7 @@
     </row>
     <row r="2622">
       <c r="A2622" t="n">
-        <v>71.15118222222216</v>
+        <v>67.55541032076694</v>
       </c>
       <c r="B2622" t="n">
         <v>43.3</v>
@@ -21495,7 +21495,7 @@
     </row>
     <row r="2629">
       <c r="A2629" t="n">
-        <v>79.85016888888887</v>
+        <v>79.85019502311617</v>
       </c>
       <c r="B2629" t="n">
         <v>43.41666666666666</v>
@@ -21503,7 +21503,7 @@
     </row>
     <row r="2630">
       <c r="A2630" t="n">
-        <v>79.77525333333332</v>
+        <v>79.77533172094607</v>
       </c>
       <c r="B2630" t="n">
         <v>43.43333333333333</v>
@@ -21511,7 +21511,7 @@
     </row>
     <row r="2631">
       <c r="A2631" t="n">
-        <v>79.70033777777776</v>
+        <v>79.70049452287653</v>
       </c>
       <c r="B2631" t="n">
         <v>43.45</v>
@@ -21519,7 +21519,7 @@
     </row>
     <row r="2632">
       <c r="A2632" t="n">
-        <v>79.6254222222222</v>
+        <v>79.6256834138614</v>
       </c>
       <c r="B2632" t="n">
         <v>43.46666666666667</v>
@@ -21527,7 +21527,7 @@
     </row>
     <row r="2633">
       <c r="A2633" t="n">
-        <v>79.55050666666664</v>
+        <v>79.55089837886598</v>
       </c>
       <c r="B2633" t="n">
         <v>43.48333333333333</v>
@@ -21535,7 +21535,7 @@
     </row>
     <row r="2634">
       <c r="A2634" t="n">
-        <v>79.47559111111107</v>
+        <v>79.47613940286706</v>
       </c>
       <c r="B2634" t="n">
         <v>43.5</v>
@@ -21543,7 +21543,7 @@
     </row>
     <row r="2635">
       <c r="A2635" t="n">
-        <v>79.40067555555552</v>
+        <v>79.40140647085286</v>
       </c>
       <c r="B2635" t="n">
         <v>43.51666666666667</v>
@@ -21551,7 +21551,7 @@
     </row>
     <row r="2636">
       <c r="A2636" t="n">
-        <v>79.32575999999996</v>
+        <v>79.32669956782298</v>
       </c>
       <c r="B2636" t="n">
         <v>43.53333333333333</v>
@@ -21559,7 +21559,7 @@
     </row>
     <row r="2637">
       <c r="A2637" t="n">
-        <v>79.2508444444444</v>
+        <v>79.25201867878852</v>
       </c>
       <c r="B2637" t="n">
         <v>43.55</v>
@@ -21567,7 +21567,7 @@
     </row>
     <row r="2638">
       <c r="A2638" t="n">
-        <v>79.17592888888883</v>
+        <v>79.17736378877188</v>
       </c>
       <c r="B2638" t="n">
         <v>43.56666666666667</v>
@@ -21575,7 +21575,7 @@
     </row>
     <row r="2639">
       <c r="A2639" t="n">
-        <v>79.10101333333327</v>
+        <v>79.10273488280698</v>
       </c>
       <c r="B2639" t="n">
         <v>43.58333333333334</v>
@@ -21583,7 +21583,7 @@
     </row>
     <row r="2640">
       <c r="A2640" t="n">
-        <v>79.02609777777772</v>
+        <v>79.02813194593905</v>
       </c>
       <c r="B2640" t="n">
         <v>43.6</v>
@@ -21591,7 +21591,7 @@
     </row>
     <row r="2641">
       <c r="A2641" t="n">
-        <v>78.95118222222216</v>
+        <v>78.9535549632247</v>
       </c>
       <c r="B2641" t="n">
         <v>43.61666666666667</v>
@@ -21599,7 +21599,7 @@
     </row>
     <row r="2642">
       <c r="A2642" t="n">
-        <v>78.8762666666666</v>
+        <v>78.87900391973193</v>
       </c>
       <c r="B2642" t="n">
         <v>43.63333333333333</v>
@@ -21607,7 +21607,7 @@
     </row>
     <row r="2643">
       <c r="A2643" t="n">
-        <v>78.80135111111103</v>
+        <v>78.80447880054007</v>
       </c>
       <c r="B2643" t="n">
         <v>43.65</v>
@@ -21615,7 +21615,7 @@
     </row>
     <row r="2644">
       <c r="A2644" t="n">
-        <v>78.72643555555547</v>
+        <v>78.7299795907398</v>
       </c>
       <c r="B2644" t="n">
         <v>43.66666666666666</v>
@@ -21623,7 +21623,7 @@
     </row>
     <row r="2645">
       <c r="A2645" t="n">
-        <v>78.65151999999992</v>
+        <v>78.65550627543314</v>
       </c>
       <c r="B2645" t="n">
         <v>43.68333333333333</v>
@@ -21631,7 +21631,7 @@
     </row>
     <row r="2646">
       <c r="A2646" t="n">
-        <v>78.57660444444436</v>
+        <v>78.58105883973342</v>
       </c>
       <c r="B2646" t="n">
         <v>43.7</v>
@@ -21639,7 +21639,7 @@
     </row>
     <row r="2647">
       <c r="A2647" t="n">
-        <v>78.50168888888879</v>
+        <v>78.50663726876527</v>
       </c>
       <c r="B2647" t="n">
         <v>43.71666666666667</v>
@@ -21647,7 +21647,7 @@
     </row>
     <row r="2648">
       <c r="A2648" t="n">
-        <v>78.42677333333323</v>
+        <v>78.43224154766469</v>
       </c>
       <c r="B2648" t="n">
         <v>43.73333333333333</v>
@@ -21655,7 +21655,7 @@
     </row>
     <row r="2649">
       <c r="A2649" t="n">
-        <v>78.35185777777767</v>
+        <v>78.35787166157886</v>
       </c>
       <c r="B2649" t="n">
         <v>43.75</v>
@@ -21663,7 +21663,7 @@
     </row>
     <row r="2650">
       <c r="A2650" t="n">
-        <v>78.27694222222212</v>
+        <v>78.28352759566629</v>
       </c>
       <c r="B2650" t="n">
         <v>43.76666666666667</v>
@@ -21671,7 +21671,7 @@
     </row>
     <row r="2651">
       <c r="A2651" t="n">
-        <v>78.20202666666655</v>
+        <v>78.20920933509679</v>
       </c>
       <c r="B2651" t="n">
         <v>43.78333333333333</v>
@@ -21679,7 +21679,7 @@
     </row>
     <row r="2652">
       <c r="A2652" t="n">
-        <v>78.12711111111099</v>
+        <v>78.13491686505137</v>
       </c>
       <c r="B2652" t="n">
         <v>43.8</v>
@@ -21687,7 +21687,7 @@
     </row>
     <row r="2653">
       <c r="A2653" t="n">
-        <v>78.05219555555543</v>
+        <v>78.06065017072233</v>
       </c>
       <c r="B2653" t="n">
         <v>43.81666666666667</v>
@@ -21695,7 +21695,7 @@
     </row>
     <row r="2654">
       <c r="A2654" t="n">
-        <v>77.97727999999987</v>
+        <v>77.98640923731318</v>
       </c>
       <c r="B2654" t="n">
         <v>43.83333333333334</v>
@@ -21703,7 +21703,7 @@
     </row>
     <row r="2655">
       <c r="A2655" t="n">
-        <v>77.90236444444432</v>
+        <v>77.91219405003866</v>
       </c>
       <c r="B2655" t="n">
         <v>43.85</v>
@@ -21711,7 +21711,7 @@
     </row>
     <row r="2656">
       <c r="A2656" t="n">
-        <v>77.82744888888875</v>
+        <v>77.83800459412473</v>
       </c>
       <c r="B2656" t="n">
         <v>43.86666666666667</v>
@@ -21719,7 +21719,7 @@
     </row>
     <row r="2657">
       <c r="A2657" t="n">
-        <v>77.75253333333319</v>
+        <v>77.76384085480852</v>
       </c>
       <c r="B2657" t="n">
         <v>43.88333333333333</v>
@@ -21727,7 +21727,7 @@
     </row>
     <row r="2658">
       <c r="A2658" t="n">
-        <v>77.67761777777763</v>
+        <v>77.6897028173384</v>
       </c>
       <c r="B2658" t="n">
         <v>43.9</v>
@@ -21735,7 +21735,7 @@
     </row>
     <row r="2659">
       <c r="A2659" t="n">
-        <v>77.60270222222206</v>
+        <v>77.61559046697391</v>
       </c>
       <c r="B2659" t="n">
         <v>43.91666666666666</v>
@@ -21743,7 +21743,7 @@
     </row>
     <row r="2660">
       <c r="A2660" t="n">
-        <v>77.52778666666651</v>
+        <v>77.54150378898575</v>
       </c>
       <c r="B2660" t="n">
         <v>43.93333333333333</v>
@@ -21751,7 +21751,7 @@
     </row>
     <row r="2661">
       <c r="A2661" t="n">
-        <v>77.45287111111095</v>
+        <v>77.46744276865579</v>
       </c>
       <c r="B2661" t="n">
         <v>43.95</v>
@@ -21759,7 +21759,7 @@
     </row>
     <row r="2662">
       <c r="A2662" t="n">
-        <v>77.37795555555539</v>
+        <v>77.39340739127702</v>
       </c>
       <c r="B2662" t="n">
         <v>43.96666666666667</v>
@@ -21767,7 +21767,7 @@
     </row>
     <row r="2663">
       <c r="A2663" t="n">
-        <v>77.30303999999983</v>
+        <v>77.31939764215363</v>
       </c>
       <c r="B2663" t="n">
         <v>43.98333333333333</v>
@@ -21775,7 +21775,7 @@
     </row>
     <row r="2664">
       <c r="A2664" t="n">
-        <v>77.22812444444426</v>
+        <v>77.24541350660085</v>
       </c>
       <c r="B2664" t="n">
         <v>44</v>
@@ -21783,7 +21783,7 @@
     </row>
     <row r="2665">
       <c r="A2665" t="n">
-        <v>77.15320888888871</v>
+        <v>77.17145496994513</v>
       </c>
       <c r="B2665" t="n">
         <v>44.01666666666667</v>
@@ -21791,7 +21791,7 @@
     </row>
     <row r="2666">
       <c r="A2666" t="n">
-        <v>77.07829333333315</v>
+        <v>77.09752201752397</v>
       </c>
       <c r="B2666" t="n">
         <v>44.03333333333333</v>
@@ -21799,7 +21799,7 @@
     </row>
     <row r="2667">
       <c r="A2667" t="n">
-        <v>77.00337777777759</v>
+        <v>77.02361463468597</v>
       </c>
       <c r="B2667" t="n">
         <v>44.05</v>
@@ -21991,7 +21991,7 @@
     </row>
     <row r="2691">
       <c r="A2691" t="n">
-        <v>79.92508444444444</v>
+        <v>80</v>
       </c>
       <c r="B2691" t="n">
         <v>44.45</v>
@@ -21999,7 +21999,7 @@
     </row>
     <row r="2692">
       <c r="A2692" t="n">
-        <v>79.85016888888887</v>
+        <v>79.92508444444444</v>
       </c>
       <c r="B2692" t="n">
         <v>44.46666666666667</v>
@@ -22007,7 +22007,7 @@
     </row>
     <row r="2693">
       <c r="A2693" t="n">
-        <v>79.77525333333332</v>
+        <v>79.85019502311617</v>
       </c>
       <c r="B2693" t="n">
         <v>44.48333333333333</v>
@@ -22015,7 +22015,7 @@
     </row>
     <row r="2694">
       <c r="A2694" t="n">
-        <v>79.70033777777776</v>
+        <v>79.77533172094607</v>
       </c>
       <c r="B2694" t="n">
         <v>44.5</v>
@@ -22023,7 +22023,7 @@
     </row>
     <row r="2695">
       <c r="A2695" t="n">
-        <v>79.6254222222222</v>
+        <v>79.70049452287653</v>
       </c>
       <c r="B2695" t="n">
         <v>44.51666666666667</v>
@@ -22031,7 +22031,7 @@
     </row>
     <row r="2696">
       <c r="A2696" t="n">
-        <v>79.55050666666664</v>
+        <v>79.6256834138614</v>
       </c>
       <c r="B2696" t="n">
         <v>44.53333333333333</v>
@@ -22039,7 +22039,7 @@
     </row>
     <row r="2697">
       <c r="A2697" t="n">
-        <v>79.47559111111107</v>
+        <v>79.55089837886598</v>
       </c>
       <c r="B2697" t="n">
         <v>44.55</v>
@@ -22047,7 +22047,7 @@
     </row>
     <row r="2698">
       <c r="A2698" t="n">
-        <v>79.40067555555552</v>
+        <v>79.47613940286706</v>
       </c>
       <c r="B2698" t="n">
         <v>44.56666666666667</v>
@@ -22055,7 +22055,7 @@
     </row>
     <row r="2699">
       <c r="A2699" t="n">
-        <v>79.32575999999996</v>
+        <v>79.40140647085286</v>
       </c>
       <c r="B2699" t="n">
         <v>44.58333333333334</v>
@@ -22063,7 +22063,7 @@
     </row>
     <row r="2700">
       <c r="A2700" t="n">
-        <v>79.2508444444444</v>
+        <v>79.32669956782298</v>
       </c>
       <c r="B2700" t="n">
         <v>44.6</v>
@@ -22071,7 +22071,7 @@
     </row>
     <row r="2701">
       <c r="A2701" t="n">
-        <v>79.17592888888883</v>
+        <v>79.25201867878852</v>
       </c>
       <c r="B2701" t="n">
         <v>44.61666666666667</v>
@@ -22079,7 +22079,7 @@
     </row>
     <row r="2702">
       <c r="A2702" t="n">
-        <v>79.10101333333327</v>
+        <v>79.17736378877188</v>
       </c>
       <c r="B2702" t="n">
         <v>44.63333333333333</v>
@@ -22087,7 +22087,7 @@
     </row>
     <row r="2703">
       <c r="A2703" t="n">
-        <v>79.02609777777772</v>
+        <v>79.10273488280698</v>
       </c>
       <c r="B2703" t="n">
         <v>44.65</v>
@@ -22095,7 +22095,7 @@
     </row>
     <row r="2704">
       <c r="A2704" t="n">
-        <v>78.95118222222216</v>
+        <v>79.02813194593905</v>
       </c>
       <c r="B2704" t="n">
         <v>44.66666666666666</v>
@@ -22103,7 +22103,7 @@
     </row>
     <row r="2705">
       <c r="A2705" t="n">
-        <v>78.8762666666666</v>
+        <v>78.9535549632247</v>
       </c>
       <c r="B2705" t="n">
         <v>44.68333333333333</v>
@@ -22111,7 +22111,7 @@
     </row>
     <row r="2706">
       <c r="A2706" t="n">
-        <v>78.80135111111103</v>
+        <v>78.87900391973193</v>
       </c>
       <c r="B2706" t="n">
         <v>44.7</v>
@@ -22119,7 +22119,7 @@
     </row>
     <row r="2707">
       <c r="A2707" t="n">
-        <v>78.72643555555547</v>
+        <v>78.80447880054007</v>
       </c>
       <c r="B2707" t="n">
         <v>44.71666666666667</v>
@@ -22127,7 +22127,7 @@
     </row>
     <row r="2708">
       <c r="A2708" t="n">
-        <v>78.65151999999992</v>
+        <v>78.7299795907398</v>
       </c>
       <c r="B2708" t="n">
         <v>44.73333333333333</v>
@@ -22135,7 +22135,7 @@
     </row>
     <row r="2709">
       <c r="A2709" t="n">
-        <v>74.33151999999991</v>
+        <v>74.40997959073979</v>
       </c>
       <c r="B2709" t="n">
         <v>44.75</v>
@@ -22143,7 +22143,7 @@
     </row>
     <row r="2710">
       <c r="A2710" t="n">
-        <v>70.01151999999992</v>
+        <v>70.0899795907398</v>
       </c>
       <c r="B2710" t="n">
         <v>44.76666666666667</v>
@@ -22151,7 +22151,7 @@
     </row>
     <row r="2711">
       <c r="A2711" t="n">
-        <v>65.69151999999993</v>
+        <v>65.76997959073981</v>
       </c>
       <c r="B2711" t="n">
         <v>44.78333333333333</v>
@@ -22159,7 +22159,7 @@
     </row>
     <row r="2712">
       <c r="A2712" t="n">
-        <v>61.37151999999992</v>
+        <v>61.4499795907398</v>
       </c>
       <c r="B2712" t="n">
         <v>44.8</v>
@@ -22167,7 +22167,7 @@
     </row>
     <row r="2713">
       <c r="A2713" t="n">
-        <v>57.05151999999993</v>
+        <v>57.12997959073981</v>
       </c>
       <c r="B2713" t="n">
         <v>44.81666666666667</v>
@@ -22175,7 +22175,7 @@
     </row>
     <row r="2714">
       <c r="A2714" t="n">
-        <v>52.73151999999993</v>
+        <v>52.80997959073981</v>
       </c>
       <c r="B2714" t="n">
         <v>44.83333333333334</v>
@@ -22183,7 +22183,7 @@
     </row>
     <row r="2715">
       <c r="A2715" t="n">
-        <v>48.41151999999992</v>
+        <v>48.48997959073981</v>
       </c>
       <c r="B2715" t="n">
         <v>44.85</v>
@@ -22191,7 +22191,7 @@
     </row>
     <row r="2716">
       <c r="A2716" t="n">
-        <v>44.09151999999993</v>
+        <v>44.16997959073981</v>
       </c>
       <c r="B2716" t="n">
         <v>44.86666666666667</v>
@@ -22199,7 +22199,7 @@
     </row>
     <row r="2717">
       <c r="A2717" t="n">
-        <v>39.77151999999994</v>
+        <v>39.84997959073981</v>
       </c>
       <c r="B2717" t="n">
         <v>44.88333333333333</v>
@@ -22207,7 +22207,7 @@
     </row>
     <row r="2718">
       <c r="A2718" t="n">
-        <v>35.45151999999994</v>
+        <v>35.52997959073982</v>
       </c>
       <c r="B2718" t="n">
         <v>44.9</v>
@@ -22215,7 +22215,7 @@
     </row>
     <row r="2719">
       <c r="A2719" t="n">
-        <v>31.13151999999994</v>
+        <v>31.20997959073982</v>
       </c>
       <c r="B2719" t="n">
         <v>44.91666666666666</v>
@@ -22223,7 +22223,7 @@
     </row>
     <row r="2720">
       <c r="A2720" t="n">
-        <v>26.81151999999994</v>
+        <v>26.88997959073982</v>
       </c>
       <c r="B2720" t="n">
         <v>44.93333333333333</v>
@@ -22231,7 +22231,7 @@
     </row>
     <row r="2721">
       <c r="A2721" t="n">
-        <v>22.49151999999994</v>
+        <v>22.56997959073982</v>
       </c>
       <c r="B2721" t="n">
         <v>44.95</v>
@@ -22239,7 +22239,7 @@
     </row>
     <row r="2722">
       <c r="A2722" t="n">
-        <v>18.17151999999994</v>
+        <v>18.24997959073982</v>
       </c>
       <c r="B2722" t="n">
         <v>44.96666666666667</v>
@@ -22247,7 +22247,7 @@
     </row>
     <row r="2723">
       <c r="A2723" t="n">
-        <v>13.85151999999994</v>
+        <v>13.92997959073982</v>
       </c>
       <c r="B2723" t="n">
         <v>44.98333333333333</v>
@@ -22255,7 +22255,7 @@
     </row>
     <row r="2724">
       <c r="A2724" t="n">
-        <v>9.531519999999936</v>
+        <v>9.609979590739821</v>
       </c>
       <c r="B2724" t="n">
         <v>45</v>
@@ -22263,7 +22263,7 @@
     </row>
     <row r="2725">
       <c r="A2725" t="n">
-        <v>5.211519999999936</v>
+        <v>5.28997959073982</v>
       </c>
       <c r="B2725" t="n">
         <v>45.01666666666667</v>
@@ -22271,7 +22271,7 @@
     </row>
     <row r="2726">
       <c r="A2726" t="n">
-        <v>0.8915199999999365</v>
+        <v>0.9699795907398203</v>
       </c>
       <c r="B2726" t="n">
         <v>45.03333333333333</v>
@@ -22767,7 +22767,7 @@
     </row>
     <row r="2788">
       <c r="A2788" t="n">
-        <v>79.85016888888887</v>
+        <v>79.85019502311617</v>
       </c>
       <c r="B2788" t="n">
         <v>46.05</v>
@@ -22775,7 +22775,7 @@
     </row>
     <row r="2789">
       <c r="A2789" t="n">
-        <v>79.77525333333332</v>
+        <v>79.77533172094607</v>
       </c>
       <c r="B2789" t="n">
         <v>46.06666666666667</v>
@@ -22783,7 +22783,7 @@
     </row>
     <row r="2790">
       <c r="A2790" t="n">
-        <v>79.70033777777776</v>
+        <v>79.70049452287653</v>
       </c>
       <c r="B2790" t="n">
         <v>46.08333333333334</v>
@@ -22791,7 +22791,7 @@
     </row>
     <row r="2791">
       <c r="A2791" t="n">
-        <v>79.6254222222222</v>
+        <v>79.6256834138614</v>
       </c>
       <c r="B2791" t="n">
         <v>46.1</v>
@@ -22799,7 +22799,7 @@
     </row>
     <row r="2792">
       <c r="A2792" t="n">
-        <v>79.55050666666664</v>
+        <v>79.55089837886598</v>
       </c>
       <c r="B2792" t="n">
         <v>46.11666666666667</v>
@@ -22807,7 +22807,7 @@
     </row>
     <row r="2793">
       <c r="A2793" t="n">
-        <v>79.47559111111107</v>
+        <v>79.47613940286706</v>
       </c>
       <c r="B2793" t="n">
         <v>46.13333333333333</v>
@@ -22815,7 +22815,7 @@
     </row>
     <row r="2794">
       <c r="A2794" t="n">
-        <v>79.40067555555552</v>
+        <v>79.40140647085286</v>
       </c>
       <c r="B2794" t="n">
         <v>46.15</v>
@@ -22823,7 +22823,7 @@
     </row>
     <row r="2795">
       <c r="A2795" t="n">
-        <v>79.32575999999996</v>
+        <v>79.32669956782298</v>
       </c>
       <c r="B2795" t="n">
         <v>46.16666666666666</v>
@@ -22831,7 +22831,7 @@
     </row>
     <row r="2796">
       <c r="A2796" t="n">
-        <v>79.2508444444444</v>
+        <v>79.25201867878852</v>
       </c>
       <c r="B2796" t="n">
         <v>46.18333333333333</v>
@@ -22839,7 +22839,7 @@
     </row>
     <row r="2797">
       <c r="A2797" t="n">
-        <v>79.17592888888883</v>
+        <v>79.17736378877188</v>
       </c>
       <c r="B2797" t="n">
         <v>46.2</v>
@@ -22847,7 +22847,7 @@
     </row>
     <row r="2798">
       <c r="A2798" t="n">
-        <v>79.10101333333327</v>
+        <v>79.10273488280698</v>
       </c>
       <c r="B2798" t="n">
         <v>46.21666666666667</v>
@@ -22855,7 +22855,7 @@
     </row>
     <row r="2799">
       <c r="A2799" t="n">
-        <v>79.02609777777772</v>
+        <v>79.02813194593905</v>
       </c>
       <c r="B2799" t="n">
         <v>46.23333333333333</v>
@@ -22863,7 +22863,7 @@
     </row>
     <row r="2800">
       <c r="A2800" t="n">
-        <v>78.95118222222216</v>
+        <v>78.9535549632247</v>
       </c>
       <c r="B2800" t="n">
         <v>46.25</v>
@@ -22871,7 +22871,7 @@
     </row>
     <row r="2801">
       <c r="A2801" t="n">
-        <v>78.8762666666666</v>
+        <v>78.87900391973193</v>
       </c>
       <c r="B2801" t="n">
         <v>46.26666666666667</v>
@@ -22879,7 +22879,7 @@
     </row>
     <row r="2802">
       <c r="A2802" t="n">
-        <v>78.80135111111103</v>
+        <v>78.80447880054007</v>
       </c>
       <c r="B2802" t="n">
         <v>46.28333333333333</v>
@@ -22887,7 +22887,7 @@
     </row>
     <row r="2803">
       <c r="A2803" t="n">
-        <v>78.72643555555547</v>
+        <v>78.7299795907398</v>
       </c>
       <c r="B2803" t="n">
         <v>46.3</v>
@@ -22895,7 +22895,7 @@
     </row>
     <row r="2804">
       <c r="A2804" t="n">
-        <v>78.65151999999992</v>
+        <v>78.65550627543314</v>
       </c>
       <c r="B2804" t="n">
         <v>46.31666666666667</v>
@@ -22903,7 +22903,7 @@
     </row>
     <row r="2805">
       <c r="A2805" t="n">
-        <v>78.57660444444436</v>
+        <v>78.58105883973342</v>
       </c>
       <c r="B2805" t="n">
         <v>46.33333333333334</v>
@@ -22911,7 +22911,7 @@
     </row>
     <row r="2806">
       <c r="A2806" t="n">
-        <v>78.50168888888879</v>
+        <v>78.50663726876527</v>
       </c>
       <c r="B2806" t="n">
         <v>46.35</v>
@@ -22919,7 +22919,7 @@
     </row>
     <row r="2807">
       <c r="A2807" t="n">
-        <v>78.42677333333323</v>
+        <v>78.43224154766469</v>
       </c>
       <c r="B2807" t="n">
         <v>46.36666666666667</v>
@@ -22927,7 +22927,7 @@
     </row>
     <row r="2808">
       <c r="A2808" t="n">
-        <v>78.35185777777767</v>
+        <v>78.35787166157886</v>
       </c>
       <c r="B2808" t="n">
         <v>46.38333333333333</v>
@@ -22935,7 +22935,7 @@
     </row>
     <row r="2809">
       <c r="A2809" t="n">
-        <v>78.27694222222212</v>
+        <v>78.28352759566629</v>
       </c>
       <c r="B2809" t="n">
         <v>46.4</v>
@@ -22943,7 +22943,7 @@
     </row>
     <row r="2810">
       <c r="A2810" t="n">
-        <v>78.20202666666655</v>
+        <v>78.20920933509679</v>
       </c>
       <c r="B2810" t="n">
         <v>46.41666666666666</v>
@@ -22951,7 +22951,7 @@
     </row>
     <row r="2811">
       <c r="A2811" t="n">
-        <v>78.12711111111099</v>
+        <v>78.13491686505137</v>
       </c>
       <c r="B2811" t="n">
         <v>46.43333333333333</v>
@@ -22959,7 +22959,7 @@
     </row>
     <row r="2812">
       <c r="A2812" t="n">
-        <v>78.05219555555543</v>
+        <v>78.06065017072233</v>
       </c>
       <c r="B2812" t="n">
         <v>46.45</v>
@@ -22967,7 +22967,7 @@
     </row>
     <row r="2813">
       <c r="A2813" t="n">
-        <v>77.97727999999987</v>
+        <v>77.98640923731318</v>
       </c>
       <c r="B2813" t="n">
         <v>46.46666666666667</v>
@@ -22975,7 +22975,7 @@
     </row>
     <row r="2814">
       <c r="A2814" t="n">
-        <v>77.90236444444432</v>
+        <v>77.91219405003866</v>
       </c>
       <c r="B2814" t="n">
         <v>46.48333333333333</v>
@@ -22983,7 +22983,7 @@
     </row>
     <row r="2815">
       <c r="A2815" t="n">
-        <v>77.82744888888875</v>
+        <v>77.83800459412473</v>
       </c>
       <c r="B2815" t="n">
         <v>46.5</v>
@@ -22991,7 +22991,7 @@
     </row>
     <row r="2816">
       <c r="A2816" t="n">
-        <v>77.75253333333319</v>
+        <v>77.76384085480852</v>
       </c>
       <c r="B2816" t="n">
         <v>46.51666666666667</v>
@@ -22999,7 +22999,7 @@
     </row>
     <row r="2817">
       <c r="A2817" t="n">
-        <v>77.67761777777763</v>
+        <v>77.6897028173384</v>
       </c>
       <c r="B2817" t="n">
         <v>46.53333333333333</v>
@@ -23007,7 +23007,7 @@
     </row>
     <row r="2818">
       <c r="A2818" t="n">
-        <v>77.60270222222206</v>
+        <v>77.61559046697391</v>
       </c>
       <c r="B2818" t="n">
         <v>46.55</v>
@@ -23015,7 +23015,7 @@
     </row>
     <row r="2819">
       <c r="A2819" t="n">
-        <v>77.52778666666651</v>
+        <v>77.54150378898575</v>
       </c>
       <c r="B2819" t="n">
         <v>46.56666666666667</v>
@@ -23023,7 +23023,7 @@
     </row>
     <row r="2820">
       <c r="A2820" t="n">
-        <v>77.45287111111095</v>
+        <v>77.46744276865579</v>
       </c>
       <c r="B2820" t="n">
         <v>46.58333333333334</v>
@@ -23031,7 +23031,7 @@
     </row>
     <row r="2821">
       <c r="A2821" t="n">
-        <v>77.37795555555539</v>
+        <v>77.39340739127702</v>
       </c>
       <c r="B2821" t="n">
         <v>46.6</v>
@@ -23039,7 +23039,7 @@
     </row>
     <row r="2822">
       <c r="A2822" t="n">
-        <v>77.30303999999983</v>
+        <v>77.31939764215363</v>
       </c>
       <c r="B2822" t="n">
         <v>46.61666666666667</v>
@@ -23047,7 +23047,7 @@
     </row>
     <row r="2823">
       <c r="A2823" t="n">
-        <v>77.22812444444426</v>
+        <v>77.24541350660085</v>
       </c>
       <c r="B2823" t="n">
         <v>46.63333333333333</v>
@@ -23055,7 +23055,7 @@
     </row>
     <row r="2824">
       <c r="A2824" t="n">
-        <v>77.15320888888871</v>
+        <v>77.17145496994513</v>
       </c>
       <c r="B2824" t="n">
         <v>46.65</v>
@@ -23063,7 +23063,7 @@
     </row>
     <row r="2825">
       <c r="A2825" t="n">
-        <v>77.07829333333315</v>
+        <v>77.09752201752397</v>
       </c>
       <c r="B2825" t="n">
         <v>46.66666666666666</v>
@@ -23071,7 +23071,7 @@
     </row>
     <row r="2826">
       <c r="A2826" t="n">
-        <v>77.00337777777759</v>
+        <v>77.02361463468597</v>
       </c>
       <c r="B2826" t="n">
         <v>46.68333333333333</v>
@@ -23079,7 +23079,7 @@
     </row>
     <row r="2827">
       <c r="A2827" t="n">
-        <v>76.92846222222202</v>
+        <v>76.94973280679082</v>
       </c>
       <c r="B2827" t="n">
         <v>46.7</v>
@@ -23087,7 +23087,7 @@
     </row>
     <row r="2828">
       <c r="A2828" t="n">
-        <v>76.85354666666646</v>
+        <v>76.87587651920927</v>
       </c>
       <c r="B2828" t="n">
         <v>46.71666666666667</v>
@@ -23095,7 +23095,7 @@
     </row>
     <row r="2829">
       <c r="A2829" t="n">
-        <v>76.77863111111091</v>
+        <v>76.8020457573232</v>
       </c>
       <c r="B2829" t="n">
         <v>46.73333333333333</v>
@@ -23103,7 +23103,7 @@
     </row>
     <row r="2830">
       <c r="A2830" t="n">
-        <v>76.70371555555535</v>
+        <v>76.72824050652545</v>
       </c>
       <c r="B2830" t="n">
         <v>46.75</v>
@@ -23111,7 +23111,7 @@
     </row>
     <row r="2831">
       <c r="A2831" t="n">
-        <v>76.62879999999979</v>
+        <v>76.65446075221999</v>
       </c>
       <c r="B2831" t="n">
         <v>46.76666666666667</v>
@@ -23119,7 +23119,7 @@
     </row>
     <row r="2832">
       <c r="A2832" t="n">
-        <v>76.55388444444422</v>
+        <v>76.58070647982179</v>
       </c>
       <c r="B2832" t="n">
         <v>46.78333333333333</v>
@@ -23127,7 +23127,7 @@
     </row>
     <row r="2833">
       <c r="A2833" t="n">
-        <v>76.47896888888866</v>
+        <v>76.50697767475683</v>
       </c>
       <c r="B2833" t="n">
         <v>46.8</v>
@@ -23135,7 +23135,7 @@
     </row>
     <row r="2834">
       <c r="A2834" t="n">
-        <v>76.40405333333311</v>
+        <v>76.4332743224621</v>
       </c>
       <c r="B2834" t="n">
         <v>46.81666666666667</v>
@@ -23143,7 +23143,7 @@
     </row>
     <row r="2835">
       <c r="A2835" t="n">
-        <v>76.32913777777755</v>
+        <v>76.35959640838566</v>
       </c>
       <c r="B2835" t="n">
         <v>46.83333333333334</v>
@@ -23151,7 +23151,7 @@
     </row>
     <row r="2836">
       <c r="A2836" t="n">
-        <v>76.25422222222198</v>
+        <v>76.28594391798646</v>
       </c>
       <c r="B2836" t="n">
         <v>46.85</v>
@@ -23159,7 +23159,7 @@
     </row>
     <row r="2837">
       <c r="A2837" t="n">
-        <v>76.17930666666642</v>
+        <v>76.21231683673452</v>
       </c>
       <c r="B2837" t="n">
         <v>46.86666666666667</v>
@@ -23167,7 +23167,7 @@
     </row>
     <row r="2838">
       <c r="A2838" t="n">
-        <v>76.10439111111086</v>
+        <v>76.13871515011076</v>
       </c>
       <c r="B2838" t="n">
         <v>46.88333333333333</v>
@@ -23175,7 +23175,7 @@
     </row>
     <row r="2839">
       <c r="A2839" t="n">
-        <v>76.02947555555531</v>
+        <v>76.06513884360712</v>
       </c>
       <c r="B2839" t="n">
         <v>46.9</v>
@@ -23183,7 +23183,7 @@
     </row>
     <row r="2840">
       <c r="A2840" t="n">
-        <v>75.95455999999974</v>
+        <v>75.99158790272648</v>
       </c>
       <c r="B2840" t="n">
         <v>46.91666666666666</v>
@@ -23191,7 +23191,7 @@
     </row>
     <row r="2841">
       <c r="A2841" t="n">
-        <v>75.87964444444418</v>
+        <v>75.91806231298264</v>
       </c>
       <c r="B2841" t="n">
         <v>46.93333333333333</v>
@@ -23199,7 +23199,7 @@
     </row>
     <row r="2842">
       <c r="A2842" t="n">
-        <v>75.80472888888862</v>
+        <v>75.84456205990034</v>
       </c>
       <c r="B2842" t="n">
         <v>46.95</v>
@@ -23207,7 +23207,7 @@
     </row>
     <row r="2843">
       <c r="A2843" t="n">
-        <v>75.72981333333306</v>
+        <v>75.77108712901523</v>
       </c>
       <c r="B2843" t="n">
         <v>46.96666666666667</v>
@@ -23215,7 +23215,7 @@
     </row>
     <row r="2844">
       <c r="A2844" t="n">
-        <v>75.65489777777751</v>
+        <v>75.69763750587389</v>
       </c>
       <c r="B2844" t="n">
         <v>46.98333333333333</v>
@@ -23223,7 +23223,7 @@
     </row>
     <row r="2845">
       <c r="A2845" t="n">
-        <v>75.57998222222194</v>
+        <v>75.62421317603378</v>
       </c>
       <c r="B2845" t="n">
         <v>47</v>
@@ -23231,7 +23231,7 @@
     </row>
     <row r="2846">
       <c r="A2846" t="n">
-        <v>75.50506666666638</v>
+        <v>75.55081412506328</v>
       </c>
       <c r="B2846" t="n">
         <v>47.01666666666667</v>
@@ -23239,7 +23239,7 @@
     </row>
     <row r="2847">
       <c r="A2847" t="n">
-        <v>75.43015111111082</v>
+        <v>75.4774403385416</v>
       </c>
       <c r="B2847" t="n">
         <v>47.03333333333333</v>
@@ -23247,7 +23247,7 @@
     </row>
     <row r="2848">
       <c r="A2848" t="n">
-        <v>75.35523555555525</v>
+        <v>75.40409180205886</v>
       </c>
       <c r="B2848" t="n">
         <v>47.05</v>
@@ -23255,7 +23255,7 @@
     </row>
     <row r="2849">
       <c r="A2849" t="n">
-        <v>71.03523555555526</v>
+        <v>71.08409180205886</v>
       </c>
       <c r="B2849" t="n">
         <v>47.06666666666667</v>
@@ -23263,7 +23263,7 @@
     </row>
     <row r="2850">
       <c r="A2850" t="n">
-        <v>66.71523555555527</v>
+        <v>66.76409180205887</v>
       </c>
       <c r="B2850" t="n">
         <v>47.08333333333334</v>
@@ -23271,7 +23271,7 @@
     </row>
     <row r="2851">
       <c r="A2851" t="n">
-        <v>62.39523555555527</v>
+        <v>62.44409180205887</v>
       </c>
       <c r="B2851" t="n">
         <v>47.1</v>
@@ -23279,7 +23279,7 @@
     </row>
     <row r="2852">
       <c r="A2852" t="n">
-        <v>58.07523555555527</v>
+        <v>58.12409180205888</v>
       </c>
       <c r="B2852" t="n">
         <v>47.11666666666667</v>
@@ -23287,7 +23287,7 @@
     </row>
     <row r="2853">
       <c r="A2853" t="n">
-        <v>53.75523555555527</v>
+        <v>53.80409180205888</v>
       </c>
       <c r="B2853" t="n">
         <v>47.13333333333333</v>
@@ -23295,7 +23295,7 @@
     </row>
     <row r="2854">
       <c r="A2854" t="n">
-        <v>49.43523555555527</v>
+        <v>49.48409180205888</v>
       </c>
       <c r="B2854" t="n">
         <v>47.15</v>
@@ -23303,7 +23303,7 @@
     </row>
     <row r="2855">
       <c r="A2855" t="n">
-        <v>45.11523555555527</v>
+        <v>45.16409180205888</v>
       </c>
       <c r="B2855" t="n">
         <v>47.16666666666666</v>
@@ -23311,7 +23311,7 @@
     </row>
     <row r="2856">
       <c r="A2856" t="n">
-        <v>40.79523555555528</v>
+        <v>40.84409180205888</v>
       </c>
       <c r="B2856" t="n">
         <v>47.18333333333333</v>
@@ -23319,7 +23319,7 @@
     </row>
     <row r="2857">
       <c r="A2857" t="n">
-        <v>36.47523555555528</v>
+        <v>36.52409180205889</v>
       </c>
       <c r="B2857" t="n">
         <v>47.2</v>
@@ -23327,7 +23327,7 @@
     </row>
     <row r="2858">
       <c r="A2858" t="n">
-        <v>32.15523555555528</v>
+        <v>32.20409180205889</v>
       </c>
       <c r="B2858" t="n">
         <v>47.21666666666667</v>
@@ -23335,7 +23335,7 @@
     </row>
     <row r="2859">
       <c r="A2859" t="n">
-        <v>27.83523555555528</v>
+        <v>27.88409180205889</v>
       </c>
       <c r="B2859" t="n">
         <v>47.23333333333333</v>
@@ -23343,7 +23343,7 @@
     </row>
     <row r="2860">
       <c r="A2860" t="n">
-        <v>23.51523555555528</v>
+        <v>23.56409180205889</v>
       </c>
       <c r="B2860" t="n">
         <v>47.25</v>
@@ -23351,7 +23351,7 @@
     </row>
     <row r="2861">
       <c r="A2861" t="n">
-        <v>19.19523555555528</v>
+        <v>19.24409180205889</v>
       </c>
       <c r="B2861" t="n">
         <v>47.26666666666667</v>
@@ -23359,7 +23359,7 @@
     </row>
     <row r="2862">
       <c r="A2862" t="n">
-        <v>14.87523555555528</v>
+        <v>14.92409180205889</v>
       </c>
       <c r="B2862" t="n">
         <v>47.28333333333333</v>
@@ -23367,7 +23367,7 @@
     </row>
     <row r="2863">
       <c r="A2863" t="n">
-        <v>10.55523555555528</v>
+        <v>10.60409180205889</v>
       </c>
       <c r="B2863" t="n">
         <v>47.3</v>
@@ -23375,7 +23375,7 @@
     </row>
     <row r="2864">
       <c r="A2864" t="n">
-        <v>6.235235555555279</v>
+        <v>6.284091802058887</v>
       </c>
       <c r="B2864" t="n">
         <v>47.31666666666667</v>
@@ -23383,7 +23383,7 @@
     </row>
     <row r="2865">
       <c r="A2865" t="n">
-        <v>1.91523555555528</v>
+        <v>1.964091802058888</v>
       </c>
       <c r="B2865" t="n">
         <v>47.33333333333334</v>
@@ -23665,7 +23665,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Total energy consumed during the run: 224.289 kWh</t>
+          <t>Total energy consumed during the run: 224.262 kWh</t>
         </is>
       </c>
     </row>
